--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69AE6D-DBE5-41D4-8C09-26F23BDAE4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30569BF-2B68-45A2-B558-3ED3A0278A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -971,6 +971,9 @@
   <si>
     <t>VTECH</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
 </sst>
 </file>
@@ -2220,23 +2223,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3602,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3656,7 +3643,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -4933,32 +4920,32 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C44:M44 E91:F93 F94 E95:F95 F96:F98 C25:M33">
-    <cfRule type="containsBlanks" dxfId="22" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="20" priority="11">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="21" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="20" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="3">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="19" priority="17">
+    <cfRule type="containsBlanks" dxfId="17" priority="17">
       <formula>LEN(TRIM(D34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="18" priority="1">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="8">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -5129,7 +5116,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>N</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -6407,27 +6394,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="17" priority="5">
+    <cfRule type="containsBlanks" dxfId="15" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="16" priority="3">
+    <cfRule type="containsBlanks" dxfId="14" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="15" priority="2">
+    <cfRule type="containsBlanks" dxfId="13" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="14" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10415,22 +10402,22 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="12" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="11" priority="3">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10451,7 +10438,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
@@ -12758,32 +12745,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C108">
-    <cfRule type="containsBlanks" dxfId="8" priority="8">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(C108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 H74:H82 C86 C88">
-    <cfRule type="containsBlanks" dxfId="7" priority="11">
+    <cfRule type="containsBlanks" dxfId="5" priority="11">
       <formula>LEN(TRIM(C74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="containsBlanks" dxfId="6" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(E88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(F84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsBlanks" dxfId="3" priority="10">
+    <cfRule type="containsBlanks" dxfId="1" priority="10">
       <formula>LEN(TRIM(H88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="containsBlanks" dxfId="2" priority="15">
+    <cfRule type="containsBlanks" dxfId="0" priority="15">
       <formula>LEN(TRIM(I84))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30569BF-2B68-45A2-B558-3ED3A0278A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E72A34-A4A8-4F18-8C01-9F9A0B29AE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3589,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3660,7 +3660,7 @@
         <v>217</v>
       </c>
       <c r="C10" s="193">
-        <v>252942000</v>
+        <v>253069133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4984,7 +4984,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="G4" s="283">
         <f>Inputs!C10</f>
-        <v>252942000</v>
+        <v>253069133</v>
       </c>
       <c r="H4" s="283"/>
       <c r="I4" s="39"/>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>13115.0427</v>
+        <v>13121.634546050002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.964193503872107</v>
+        <v>12.970709530521408</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
-        <v>1.1465457619303772</v>
+        <v>1.1471220355518064</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5372,20 +5372,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.423414623084106</v>
+        <v>40.395840299211699</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>74.649354985438336</v>
+        <v>74.598433866813707</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.556958380098948</v>
+        <v>47.524517999072586</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>64.912482596033342</v>
+        <v>64.868203362446707</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12287,17 +12287,17 @@
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
-        <v>0.51446576685564283</v>
+        <v>0.51420731741314341</v>
       </c>
       <c r="D86" s="209"/>
       <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
-        <v>0.51446576685564283</v>
+        <v>0.51420731741314341</v>
       </c>
       <c r="F86" s="209"/>
       <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
-        <v>0.51446576685564283</v>
+        <v>0.51420731741314341</v>
       </c>
       <c r="I86" s="209"/>
       <c r="K86" s="24"/>
@@ -12308,17 +12308,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.713553486387896E-2</v>
+        <v>7.7096784693766948E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.713553486387896E-2</v>
+        <v>7.7096784693766948E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.713553486387896E-2</v>
+        <v>7.7096784693766948E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="D88" s="166">
         <f>C88/C86</f>
-        <v>1.1465457619303772</v>
+        <v>1.1471220355518064</v>
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>1.1465457619303772</v>
+        <v>1.1471220355518064</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="I88" s="166">
         <f>H88/H86</f>
-        <v>1.1465457619303772</v>
+        <v>1.1471220355518064</v>
       </c>
       <c r="K88" s="24"/>
     </row>
@@ -12429,14 +12429,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.654030053450342</v>
+        <v>95.588780859907729</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.654030053450342</v>
+        <v>95.588780859907729</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12507,21 +12507,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12029152.166578988</v>
+        <v>12026988.566268194</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.556958380098948</v>
+        <v>47.524517999072586</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.556958380098948</v>
+        <v>47.524517999072586</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>64.912482596033342</v>
+        <v>64.868203362446707</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12570,27 +12570,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12029152.166578988</v>
+        <v>12026988.566268194</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.423414623084106</v>
+        <v>40.395840299211699</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.556958380098948</v>
+        <v>47.524517999072586</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>47.556958380098948</v>
+        <v>47.524517999072586</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.556958380098941</v>
+        <v>47.524517999072586</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>64.912482596033342</v>
+        <v>64.868203362446707</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14531015.181859463</v>
+        <v>14538318.720034679</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
@@ -12692,27 +12692,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13280083.674219225</v>
+        <v>13282653.643151436</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>44.627112630904875</v>
+        <v>44.613325468968675</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>52.502485448123387</v>
+        <v>52.486265257610206</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>52.502485448123387</v>
+        <v>52.486265257610206</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>52.50248544812338</v>
+        <v>52.486265257610206</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.662839445299113</v>
+        <v>71.640699828505802</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E72A34-A4A8-4F18-8C01-9F9A0B29AE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D88264-9418-4760-BB3F-9C3B298D7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4299,7 +4310,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.843942059241329E-2</v>
+        <v>8.8534884548250523E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5037,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>51.85</v>
+        <v>51.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -5078,7 +5089,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>13121.634546050002</v>
+        <v>13108.9810894</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5127,7 +5138,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7740400632222491</v>
+        <v>7.7749268213907881</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5310,7 +5321,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.970709530521408</v>
+        <v>12.956723684737371</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5342,7 +5353,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.843942059241329E-2</v>
+        <v>8.8534884548250523E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5372,20 +5383,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.395840299211699</v>
+        <v>40.416057951722244</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>74.598433866813707</v>
+        <v>74.635769523222365</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.524517999072586</v>
+        <v>47.548303472614407</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>64.868203362446707</v>
+        <v>64.900669150628147</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12308,17 +12319,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7096784693766948E-2</v>
+        <v>7.718000509480416E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7096784693766948E-2</v>
+        <v>7.718000509480416E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7096784693766948E-2</v>
+        <v>7.718000509480416E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12359,17 +12370,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.843942059241329E-2</v>
+        <v>8.8534884548250523E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.843942059241329E-2</v>
+        <v>8.8534884548250523E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.843942059241329E-2</v>
+        <v>8.8534884548250523E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12429,14 +12440,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.588780859907729</v>
+        <v>95.636621943074161</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.588780859907729</v>
+        <v>95.636621943074161</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12457,14 +12468,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>115.54847288194385</v>
+        <v>115.61233992706195</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>115.54847288194385</v>
+        <v>115.61233992706195</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12507,21 +12518,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12026988.566268194</v>
+        <v>12033007.935435418</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.524517999072586</v>
+        <v>47.548303472614407</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.524517999072586</v>
+        <v>47.548303472614407</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>64.868203362446707</v>
+        <v>64.900669150628147</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12570,27 +12581,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12026988.566268194</v>
+        <v>12033007.935435418</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.395840299211699</v>
+        <v>40.416057951722244</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.524517999072586</v>
+        <v>47.548303472614407</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>47.524517999072586</v>
+        <v>47.548303472614407</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.524517999072586</v>
+        <v>47.548303472614407</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>64.868203362446707</v>
+        <v>64.900669150628147</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12631,27 +12642,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14538318.720034679</v>
+        <v>14546354.477102472</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>48.830810638725652</v>
+        <v>48.857800866362872</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>57.448012516147827</v>
+        <v>57.479765725132793</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>57.448012516147827</v>
+        <v>57.479765725132793</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>57.448012516147827</v>
+        <v>57.479765725132793</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>78.413196294564898</v>
+        <v>78.456537578276325</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12692,27 +12703,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13282653.643151436</v>
+        <v>13289681.206268946</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>44.613325468968675</v>
+        <v>44.636929409042558</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>52.486265257610206</v>
+        <v>52.5140345988736</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>52.486265257610206</v>
+        <v>52.5140345988736</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>52.486265257610206</v>
+        <v>52.5140345988736</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.640699828505802</v>
+        <v>71.678603364452243</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D88264-9418-4760-BB3F-9C3B298D7FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55BBC3A3-0D0F-4949-AE9F-502EE0883090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,13 +123,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,27 +943,59 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0303.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>VTECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0007</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>USD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>VTECH</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Superior Cycl. </t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2184,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3600,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3614,20 +3635,20 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>268</v>
@@ -3635,7 +3656,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45639</v>
@@ -3651,7 +3672,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>269</v>
@@ -3660,15 +3681,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>253069133</v>
@@ -3676,10 +3697,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3700,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3708,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.23</v>
@@ -3725,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3856,7 +3877,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>1510800</v>
@@ -3884,7 +3905,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>356300</v>
@@ -3912,7 +3933,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>81700</v>
@@ -3940,7 +3961,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>4900</v>
@@ -3968,7 +3989,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>0</v>
@@ -3996,7 +4017,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <f>(-127.5-40.3+48.2+1.6+0.1)*1000</f>
@@ -4028,7 +4049,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <f>33200+21600+600</f>
@@ -4060,7 +4081,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>32400</v>
@@ -4112,7 +4133,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4128,7 +4149,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4168,7 +4189,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4232,7 +4253,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4256,7 +4277,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4272,7 +4293,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4288,7 +4309,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.58985854464659881</v>
@@ -4306,11 +4327,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8534884548250523E-2</v>
+        <v>8.922130920495934E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4355,21 +4376,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4379,7 +4400,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4389,7 +4410,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4400,7 +4421,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4410,7 +4431,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4420,7 +4441,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4431,7 +4452,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4441,7 +4462,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4452,7 +4473,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4460,24 +4481,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4488,7 +4509,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4499,7 +4520,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4510,7 +4531,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4521,7 +4542,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4532,7 +4553,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4543,7 +4564,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4553,31 +4574,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4585,12 +4606,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4601,7 +4622,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4612,7 +4633,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4622,7 +4643,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4633,7 +4654,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4643,25 +4664,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4673,55 +4694,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4729,10 +4750,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4740,18 +4761,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4760,20 +4781,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4791,7 +4812,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4812,7 +4833,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4833,7 +4854,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4851,7 +4872,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4872,7 +4893,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4890,7 +4911,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4908,7 +4929,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4995,7 +5016,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5036,62 +5057,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0303.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>VTECH</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>253069133</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>13108.9810894</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>13007.753436199999</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5114,16 +5135,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5138,7 +5159,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7749268213907881</v>
+        <v>7.7747035026550293</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5148,40 +5169,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5194,29 +5215,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5226,12 +5247,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5241,29 +5262,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.70410588619098657</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5271,7 +5292,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5282,26 +5303,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5310,30 +5331,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.956723684737371</v>
+        <v>12.857041056376293</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>1.0719112643892435E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5342,18 +5363,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>7.8762175513818339E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.8534884548250523E-2</v>
+        <v>8.922130920495934E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5363,62 +5384,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.416057951722244</v>
+        <v>40.52727706739816</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>74.635769523222365</v>
+        <v>74.841156310179159</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.548303472614407</v>
-      </c>
-      <c r="G29" s="274">
+        <v>47.679149491056656</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>64.900669150628147</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>65.079266356677536</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5428,25 +5449,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5456,7 +5477,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5466,14 +5487,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5483,7 +5504,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5498,14 +5519,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6458,12 +6479,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6490,16 +6511,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6517,7 +6538,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6550,7 +6571,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6561,7 +6582,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6713,7 +6734,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6764,7 +6785,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6815,7 +6836,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6866,7 +6887,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6917,7 +6938,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6968,7 +6989,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7019,7 +7040,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7070,7 +7091,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7121,7 +7142,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7172,7 +7193,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7223,7 +7244,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7274,7 +7295,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7325,7 +7346,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7376,7 +7397,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7427,7 +7448,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7478,7 +7499,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7529,7 +7550,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7580,7 +7601,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7631,7 +7652,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7784,7 +7805,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7835,7 +7856,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7937,7 +7958,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8141,7 +8162,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8192,7 +8213,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8243,7 +8264,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8294,7 +8315,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8345,7 +8366,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8396,7 +8417,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8414,7 +8435,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8465,7 +8486,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8516,7 +8537,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8567,7 +8588,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8618,7 +8639,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8669,7 +8690,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8720,7 +8741,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8771,7 +8792,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8788,50 +8809,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8840,10 +8861,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8891,167 +8912,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>1.2281250000000001</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>0.26785714285714296</v>
       </c>
-      <c r="E52" s="153">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153">
+        <f t="shared" si="44"/>
         <v>-51</v>
       </c>
-      <c r="F52" s="153">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153">
+        <f t="shared" si="44"/>
         <v>0.1025145067698259</v>
       </c>
-      <c r="G52" s="153">
-        <f t="shared" si="43"/>
+      <c r="G53" s="153">
+        <f t="shared" si="44"/>
         <v>3.1944444444444446</v>
       </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" s="156" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" s="156" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H54" s="156" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="e">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E55" s="157">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" s="156" t="e">
         <f t="shared" si="45"/>
-        <v>0.37645865043125315</v>
-      </c>
-      <c r="F55" s="157">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" s="156" t="e">
         <f t="shared" si="45"/>
-        <v>1.0849102377486657</v>
-      </c>
-      <c r="G55" s="157">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" s="156" t="e">
         <f t="shared" si="45"/>
-        <v>1.0345036319612591</v>
-      </c>
-      <c r="H55" s="157" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>-</v>
-      </c>
-      <c r="I55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9059,112 +9081,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>2.8994082840236687E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>8.6830680173661356E-2</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157">
         <f t="shared" si="46"/>
-        <v>0.1293800539083558</v>
-      </c>
-      <c r="F56" s="153">
+        <v>0.37645865043125315</v>
+      </c>
+      <c r="F56" s="157">
         <f t="shared" si="46"/>
-        <v>3.2647584973166367E-2</v>
-      </c>
-      <c r="G56" s="153">
+        <v>1.0849102377486657</v>
+      </c>
+      <c r="G56" s="157">
         <f t="shared" si="46"/>
-        <v>4.3300175541252192E-2</v>
-      </c>
-      <c r="H56" s="153">
+        <v>1.0345036319612591</v>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>4.8465266558966073E-3</v>
-      </c>
-      <c r="I56" s="153" t="str">
+        <v>-</v>
+      </c>
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>2.8994082840236687E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>8.6830680173661356E-2</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.1293800539083558</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>3.2647584973166367E-2</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>4.3300175541252192E-2</v>
+      </c>
+      <c r="H57" s="153">
+        <f t="shared" si="47"/>
+        <v>4.8465266558966073E-3</v>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158">
+        <f t="shared" si="48"/>
         <v>1.8187898089171974</v>
       </c>
-      <c r="F57" s="158">
-        <f t="shared" si="47"/>
+      <c r="F58" s="158">
+        <f t="shared" si="48"/>
         <v>2.0655831739961759</v>
       </c>
-      <c r="G57" s="158">
-        <f t="shared" si="47"/>
+      <c r="G58" s="158">
+        <f t="shared" si="48"/>
         <v>2.0135777325186694</v>
       </c>
-      <c r="H57" s="158">
-        <f t="shared" si="47"/>
+      <c r="H58" s="158">
+        <f t="shared" si="48"/>
         <v>1.9508919202518362</v>
       </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9727,7 +9939,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10410,6 +10624,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10449,8 +10664,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10468,7 +10683,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10483,7 +10698,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10497,7 +10712,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10507,7 +10722,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10525,10 +10740,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10537,12 +10752,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in USD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10552,7 +10768,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10562,8 +10778,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10575,7 +10792,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10593,7 +10810,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10612,32 +10829,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10654,7 +10871,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10665,7 +10882,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10682,7 +10899,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10693,7 +10910,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10710,7 +10927,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10721,7 +10938,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10738,7 +10955,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10749,7 +10966,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10766,7 +10983,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10776,7 +10993,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10798,7 +11015,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10820,7 +11037,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10841,7 +11058,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10866,7 +11083,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10893,7 +11110,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10914,7 +11131,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10931,7 +11148,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10943,13 +11160,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10971,7 +11188,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10991,7 +11208,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -11000,7 +11217,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -11020,7 +11237,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -11033,7 +11250,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11053,7 +11270,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -11099,7 +11316,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11108,7 +11325,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11124,7 +11341,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11134,7 +11351,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11151,7 +11368,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11161,7 +11378,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11178,7 +11395,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11188,7 +11405,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11208,7 +11425,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11218,7 +11435,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11235,7 +11452,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11245,7 +11462,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11271,7 +11488,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11298,7 +11515,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11325,7 +11542,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11346,7 +11563,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11367,7 +11584,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11388,7 +11605,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11409,7 +11626,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11426,7 +11643,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11444,7 +11661,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11463,7 +11680,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11482,7 +11699,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11499,7 +11716,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11512,7 +11729,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11529,7 +11746,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11542,7 +11759,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11559,7 +11776,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11586,7 +11803,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11602,14 +11819,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11626,7 +11843,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11656,7 +11873,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11667,14 +11884,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11682,30 +11899,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11722,11 +11939,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11736,7 +11953,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11757,7 +11974,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11778,7 +11995,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11799,7 +12016,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11814,7 +12031,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11845,11 +12062,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11859,7 +12076,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11880,7 +12097,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11895,7 +12112,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11917,21 +12134,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11941,23 +12158,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11978,7 +12195,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -12008,7 +12225,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -12029,7 +12246,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12059,7 +12276,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12089,7 +12306,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12120,7 +12337,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12147,12 +12364,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12182,7 +12399,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12212,7 +12429,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12242,7 +12459,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12263,7 +12480,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12294,7 +12511,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12315,28 +12532,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.718000509480416E-2</v>
+        <v>7.7778393614451602E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.718000509480416E-2</v>
+        <v>7.7778393614451602E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.718000509480416E-2</v>
+        <v>7.7778393614451602E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12366,21 +12583,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8534884548250523E-2</v>
+        <v>8.922130920495934E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8534884548250523E-2</v>
+        <v>8.922130920495934E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8534884548250523E-2</v>
+        <v>8.922130920495934E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12397,29 +12614,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12436,24 +12653,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.636621943074161</v>
+        <v>95.899800022723738</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.636621943074161</v>
+        <v>95.899800022723738</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12464,18 +12681,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>115.61233992706195</v>
+        <v>115.97399155833173</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>115.61233992706195</v>
+        <v>115.97399155833173</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12494,51 +12711,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12033007.935435418</v>
+        <v>12066121.0238791</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.548303472614407</v>
+        <v>47.679149491056656</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.548303472614407</v>
+        <v>47.679149491056656</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>64.900669150628147</v>
+        <v>65.079266356677536</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12556,7 +12773,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12577,31 +12794,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12033007.935435418</v>
+        <v>12066121.0238791</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.416057951722244</v>
+        <v>40.52727706739816</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.548303472614407</v>
+        <v>47.679149491056656</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>47.548303472614407</v>
+        <v>47.679149491056656</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.548303472614407</v>
+        <v>47.679149491056656</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>64.900669150628147</v>
+        <v>65.079266356677536</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12611,58 +12828,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14546354.477102472</v>
+        <v>14591857.516215697</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>48.857800866362872</v>
+        <v>49.010634927110381</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>57.479765725132793</v>
+        <v>57.659570502482801</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>57.479765725132793</v>
+        <v>57.659570502482801</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>57.479765725132793</v>
+        <v>57.659570502482801</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>78.456537578276325</v>
+        <v>78.701960643122717</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12672,58 +12889,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13289681.206268946</v>
+        <v>13328989.270047398</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>44.636929409042558</v>
+        <v>44.768955997254267</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>52.5140345988736</v>
+        <v>52.669359996769728</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>52.5140345988736</v>
+        <v>52.669359996769728</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>52.5140345988736</v>
+        <v>52.669359996769728</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.678603364452243</v>
+        <v>71.890613499900127</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12732,7 +12949,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12741,6 +12958,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55BBC3A3-0D0F-4949-AE9F-502EE0883090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E97E95-CA14-4801-ABEB-49FFA1CFE7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.70410588619098657</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20412918860977769</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2836370415249105E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0719112643892435E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.8762175513818339E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45639</v>
@@ -3672,24 +2835,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>253069133</v>
@@ -3697,10 +2860,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3961,7 +3124,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>4900</v>
@@ -4149,7 +3312,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4277,7 +3440,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4309,7 +3472,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.58985854464659881</v>
@@ -4327,11 +3490,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.922130920495934E-2</v>
+        <v>8.9571902819343921E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4376,13 +3539,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4441,7 +3604,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4452,7 +3615,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4553,7 +3716,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4564,7 +3727,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4724,7 +3887,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4742,7 +3905,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4750,10 +3913,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4763,16 +3926,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4781,10 +3944,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4833,7 +3996,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4854,7 +4017,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4872,7 +4035,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4911,7 +4074,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4929,7 +4092,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5015,8 +4178,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5057,62 +4220,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0303.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>51.4</v>
+        <v>51.2</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>VTECH</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>253069133</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>13007.753436199999</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>12957.139609600001</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5135,16 +4298,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5159,7 +4322,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7747035026550293</v>
+        <v>7.7748834292093916</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5169,40 +4332,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5215,29 +4378,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5247,12 +4410,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5260,9 +4423,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5270,59 +4433,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.70410588619098657</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.20412918860977769</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>9.1764925199235681E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5331,30 +4494,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.857041056376293</v>
+        <v>12.806717279026856</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>1.0719112643892435E-2</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5363,18 +4526,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>7.8762175513818339E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>1.0719112643892435E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.922130920495934E-2</v>
+        <v>8.9571902819343921E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5384,62 +4547,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.52727706739816</v>
+        <v>40.585711113170056</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>74.841156310179159</v>
+        <v>74.949065646061214</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.679149491056656</v>
-      </c>
-      <c r="G29" s="278">
+        <v>47.747895427258889</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.079266356677536</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>65.173100561792367</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5449,7 +4612,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5460,14 +4623,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5477,7 +4640,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5487,14 +4650,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5504,7 +4667,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5519,14 +4682,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6470,7 +5633,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6484,7 +5646,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6511,16 +5673,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6538,7 +5700,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -6571,7 +5733,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6938,7 +6100,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6989,7 +6151,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7040,7 +6202,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7091,7 +6253,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7193,7 +6355,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7346,7 +6508,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7856,7 +7018,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8366,7 +7528,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8417,7 +7579,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8486,7 +7648,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8690,7 +7852,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8792,7 +7954,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8810,14 +7972,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8861,7 +8023,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8912,7 +8074,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8963,7 +8125,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -9014,7 +8176,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9031,7 +8193,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9231,7 +8393,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9281,7 +8443,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9331,7 +8493,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10835,7 +9997,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10993,7 +10155,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11405,7 +10567,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11873,7 +11035,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11887,11 +11049,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11902,11 +11064,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11918,11 +11080,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11939,7 +11101,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -12016,7 +11178,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12062,7 +11224,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12097,7 +11259,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12136,19 +11298,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12158,18 +11320,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12246,7 +11408,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12276,7 +11438,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12306,7 +11468,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12369,7 +11531,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12399,7 +11561,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12480,7 +11642,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12511,7 +11673,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12532,28 +11694,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7778393614451602E-2</v>
+        <v>7.8084022486985594E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7778393614451602E-2</v>
+        <v>7.8084022486985594E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.7778393614451602E-2</v>
+        <v>7.8084022486985594E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12583,21 +11745,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.922130920495934E-2</v>
+        <v>8.9571902819343921E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.922130920495934E-2</v>
+        <v>8.9571902819343921E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.922130920495934E-2</v>
+        <v>8.9571902819343921E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12619,24 +11781,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12653,24 +11815,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.899800022723738</v>
+        <v>96.038072655615522</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.899800022723738</v>
+        <v>96.038072655615522</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12681,18 +11843,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>115.97399155833173</v>
+        <v>116.16344591974496</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>115.97399155833173</v>
+        <v>116.16344591974496</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12711,14 +11873,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12735,21 +11897,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12066121.0238791</v>
+        <v>12083518.498351073</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.679149491056656</v>
+        <v>47.747895427258889</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.679149491056656</v>
+        <v>47.747895427258889</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>65.079266356677536</v>
+        <v>65.173100561792367</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12798,27 +11960,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12066121.0238791</v>
+        <v>12083518.498351073</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.52727706739816</v>
+        <v>40.585711113170056</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.679149491056656</v>
+        <v>47.747895427258889</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>47.679149491056656</v>
+        <v>47.747895427258889</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.679149491056656</v>
+        <v>47.747895427258889</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>65.079266356677536</v>
+        <v>65.173100561792367</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12828,21 +11990,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12855,31 +12017,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14591857.516215697</v>
+        <v>14615694.680138584</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.010634927110381</v>
+        <v>49.090698382871516</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>57.659570502482801</v>
+        <v>57.753762803378251</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>57.659570502482801</v>
+        <v>57.753762803378251</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>57.659570502482801</v>
+        <v>57.753762803378251</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>78.701960643122717</v>
+        <v>78.83052765625439</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12889,21 +12051,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12916,31 +12078,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13328989.270047398</v>
+        <v>13349606.589244828</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>44.768955997254267</v>
+        <v>44.838204748020786</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>52.669359996769728</v>
+        <v>52.750829115318567</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>52.669359996769728</v>
+        <v>52.750829115318567</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>52.669359996769728</v>
+        <v>52.750829115318567</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>71.890613499900127</v>
+        <v>72.001814109023371</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12949,7 +12111,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E97E95-CA14-4801-ABEB-49FFA1CFE7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6410A907-6BBE-4CA7-BBE1-9C8F5C9B3CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45639</v>
@@ -2835,24 +2855,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>253069133</v>
@@ -2860,10 +2880,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3124,7 +3144,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>4900</v>
@@ -3270,9 +3290,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3296,7 +3316,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3312,7 +3332,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3327,10 +3347,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150">
         <v>628000</v>
@@ -3350,9 +3371,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3415,10 +3436,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150">
         <v>678800</v>
@@ -3440,9 +3462,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3456,7 +3478,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3472,7 +3494,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.58985854464659881</v>
@@ -3490,11 +3512,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9571902819343921E-2</v>
+        <v>9.0004851541236094E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3539,13 +3561,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3563,7 +3585,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3573,7 +3595,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3604,7 +3626,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3615,7 +3637,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3649,7 +3671,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3716,7 +3738,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3727,7 +3749,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3774,7 +3796,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3887,7 +3909,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3905,7 +3927,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3913,10 +3935,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3924,7 +3946,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3932,10 +3954,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3957,7 +3979,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3996,7 +4018,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4017,7 +4039,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4035,7 +4057,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4074,7 +4096,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4092,7 +4114,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4115,28 +4137,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4178,8 +4205,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4220,7 +4247,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4232,15 +4259,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>51.2</v>
+        <v>50.95</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4260,7 +4287,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4273,7 +4300,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>12957.139609600001</v>
+        <v>12893.87232635</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4307,7 +4334,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4322,7 +4349,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>7.7748834292093916</v>
+        <v>7.7743167877197266</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4332,40 +4359,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4378,29 +4405,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4410,12 +4437,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4425,7 +4452,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4433,21 +4460,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4455,10 +4482,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4466,58 +4493,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>9.1764925199235681E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.806717279026856</v>
+        <v>12.745113356764413</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4526,18 +4553,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.0719112643892435E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.9571902819343921E-2</v>
+        <v>9.0004851541236094E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4547,40 +4574,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.585711113170056</v>
+        <v>40.653840125078375</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>74.949065646061214</v>
+        <v>75.07487854044858</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.747895427258889</v>
+        <v>47.828047205974556</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.173100561792367</v>
+        <v>65.282503078650947</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4588,21 +4615,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4612,25 +4639,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4640,7 +4667,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4650,14 +4677,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4667,7 +4694,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4682,14 +4709,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5589,27 +5616,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5641,12 +5668,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5673,16 +5700,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5700,7 +5727,7 @@
         <v>45382</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5733,7 +5760,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5744,7 +5771,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6100,7 +6127,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6151,7 +6178,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6202,7 +6229,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6253,7 +6280,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6355,7 +6382,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6508,7 +6535,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6763,7 +6790,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6814,7 +6841,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6868,28 +6895,28 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v/>
-      </c>
-      <c r="E27" s="65" t="e">
+        <f>IF(D34="","",D34+D30)</f>
+        <v/>
+      </c>
+      <c r="E27" s="65">
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
+        <v>1306800</v>
+      </c>
+      <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="65" t="e">
+        <v>1254100</v>
+      </c>
+      <c r="G27" s="65">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="65" t="e">
+        <v>1043400</v>
+      </c>
+      <c r="H27" s="65">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="65" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
+        <v>1083500</v>
       </c>
       <c r="I27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -6916,50 +6943,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v/>
-      </c>
-      <c r="E28" s="199">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
-        <v>1142200</v>
-      </c>
-      <c r="F28" s="199">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
-        <v>1080300</v>
-      </c>
-      <c r="G28" s="199">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
-        <v>889800</v>
-      </c>
-      <c r="H28" s="199">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
-        <v>929600</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v/>
+      </c>
+      <c r="E28" s="199" t="str">
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <v/>
+      </c>
+      <c r="F28" s="199" t="str">
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <v/>
+      </c>
+      <c r="G28" s="199" t="str">
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <v/>
+      </c>
+      <c r="H28" s="199" t="str">
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6967,50 +6994,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -7018,101 +7045,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v/>
-      </c>
-      <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
-        <v/>
-      </c>
-      <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
-        <v/>
-      </c>
-      <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
-        <v/>
-      </c>
-      <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
-        <v/>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v/>
+      </c>
+      <c r="E30" s="199">
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <v>628000</v>
+      </c>
+      <c r="F30" s="199">
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <v>523000</v>
+      </c>
+      <c r="G30" s="199">
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <v>441900</v>
+      </c>
+      <c r="H30" s="199">
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <v>476500</v>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v>628000</v>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
+        <v>20600</v>
       </c>
       <c r="F31" s="199">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v>523000</v>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
+        <v>17500</v>
       </c>
       <c r="G31" s="199">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
-        <v>441900</v>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
+        <v>17900</v>
       </c>
       <c r="H31" s="199">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
-        <v>476500</v>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
+        <v>0</v>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7120,101 +7147,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v/>
-      </c>
-      <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
-        <v/>
-      </c>
-      <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
-        <v/>
-      </c>
-      <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
-        <v/>
-      </c>
-      <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
-        <v/>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v/>
+      </c>
+      <c r="E32" s="199">
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <v>176500</v>
+      </c>
+      <c r="F32" s="199">
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <v>188600</v>
+      </c>
+      <c r="G32" s="199">
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <v>147300</v>
+      </c>
+      <c r="H32" s="199">
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <v>0</v>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v>20600</v>
-      </c>
-      <c r="F33" s="199">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v>17500</v>
-      </c>
-      <c r="G33" s="199">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v>17900</v>
-      </c>
-      <c r="H33" s="199">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v>197100</v>
+      </c>
+      <c r="F33" s="77">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v>206100</v>
+      </c>
+      <c r="G33" s="77">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v>165200</v>
+      </c>
+      <c r="H33" s="77">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7222,50 +7249,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
-        <v>176500</v>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <v>678800</v>
       </c>
       <c r="F34" s="199">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
-        <v>188600</v>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <v>731100</v>
       </c>
       <c r="G34" s="199">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
-        <v>147300</v>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <v>601500</v>
       </c>
       <c r="H34" s="199">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
-        <v>0</v>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <v>607000</v>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7273,50 +7300,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v>197100</v>
-      </c>
-      <c r="F35" s="77">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v>206100</v>
-      </c>
-      <c r="G35" s="77">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v>165200</v>
-      </c>
-      <c r="H35" s="77">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7324,50 +7351,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v/>
-      </c>
-      <c r="E36" s="199">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v>678800</v>
-      </c>
-      <c r="F36" s="199">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v>731100</v>
-      </c>
-      <c r="G36" s="199">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
-        <v>601500</v>
-      </c>
-      <c r="H36" s="199">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
-        <v>607000</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v/>
+      </c>
+      <c r="E36" s="199" t="str">
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
+        <v/>
+      </c>
+      <c r="F36" s="199" t="str">
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
+        <v/>
+      </c>
+      <c r="G36" s="199" t="str">
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
+        <v/>
+      </c>
+      <c r="H36" s="199" t="str">
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
+        <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7375,272 +7402,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.70410588619098657</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.7173127537136994</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.71773887365534694</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.69371496016524048</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.69355806972985456</v>
+      </c>
+      <c r="H40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.70562930755354092</v>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.20412918860977769</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.20292635053753846</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.19607677705125501</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.19584369599123214</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.20771184483952898</v>
+      </c>
+      <c r="H41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.20773393773995097</v>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.70410588619098657</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.7173127537136994</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.71773887365534694</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.69371496016524048</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.69355806972985456</v>
-      </c>
-      <c r="H42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.70562930755354092</v>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>3.8726007171482807E-2</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>8.9364751506976342E-3</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>5.3105518356037868E-3</v>
+      </c>
+      <c r="H42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7648,50 +7675,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.20412918860977769</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>2.2836370415249105E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.20292635053753846</v>
+        <f t="shared" si="37"/>
+        <v>5.3530802515947716E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.19607677705125501</v>
+        <f t="shared" si="37"/>
+        <v>4.0497785277367644E-3</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.19584369599123214</v>
+        <f t="shared" si="37"/>
+        <v>3.07718248113645E-3</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.20771184483952898</v>
+        <f t="shared" si="37"/>
+        <v>3.417224659432002E-3</v>
       </c>
       <c r="H43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.20773393773995097</v>
+        <f t="shared" si="37"/>
+        <v>4.1630047643276746E-4</v>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7699,50 +7726,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>3.8726007171482807E-2</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>8.9364751506976342E-3</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>5.3105518356037868E-3</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="H44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7750,50 +7777,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>2.2836370415249105E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>1.0719112643892435E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.3530802515947716E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.2758174599634206E-2</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.0497785277367644E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.2107150390213033E-2</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.07718248113645E-3</v>
+        <f t="shared" si="39"/>
+        <v>4.1731652826371059E-3</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.417224659432002E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.1082890787347033E-2</v>
       </c>
       <c r="H45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.1630047643276746E-4</v>
+        <f t="shared" si="39"/>
+        <v>3.2378925944770805E-4</v>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7801,221 +7828,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>7.8762175513818339E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>6.1649640897533123E-2</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>3.1301413203965407E-2</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>9.4254520929056188E-2</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>7.8919418148233667E-2</v>
       </c>
       <c r="H46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>8.5896664970627687E-2</v>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>1.0719112643892435E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>1.2758174599634206E-2</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.2107150390213033E-2</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>4.1731652826371059E-3</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.1082890787347033E-2</v>
-      </c>
-      <c r="H47" s="153">
-        <f t="shared" si="39"/>
-        <v>3.2378925944770805E-4</v>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>7.8762175513818339E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>6.1649640897533123E-2</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>3.1301413203965407E-2</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>9.4254520929056188E-2</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>7.8919418148233667E-2</v>
-      </c>
-      <c r="H48" s="153">
-        <f t="shared" si="40"/>
-        <v>8.5896664970627687E-2</v>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272">
+        <f t="shared" si="41"/>
+        <v>1.813973063973064</v>
+      </c>
+      <c r="F48" s="272">
+        <f t="shared" si="41"/>
+        <v>1.8916354357706722</v>
+      </c>
+      <c r="G48" s="272">
+        <f t="shared" si="41"/>
+        <v>2.0754264903201074</v>
+      </c>
+      <c r="H48" s="272">
+        <f t="shared" si="41"/>
+        <v>1.9952930318412552</v>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8023,522 +8050,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>1.2281250000000001</v>
+      </c>
+      <c r="D51" s="153">
+        <f t="shared" si="44"/>
+        <v>0.26785714285714296</v>
+      </c>
+      <c r="E51" s="153">
+        <f t="shared" si="44"/>
+        <v>-51</v>
+      </c>
+      <c r="F51" s="153">
+        <f t="shared" si="44"/>
+        <v>0.1025145067698259</v>
+      </c>
+      <c r="G51" s="153">
+        <f t="shared" si="44"/>
+        <v>3.1944444444444446</v>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>1.2281250000000001</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>0.26785714285714296</v>
-      </c>
-      <c r="E53" s="153">
-        <f t="shared" si="44"/>
-        <v>-51</v>
-      </c>
-      <c r="F53" s="153">
-        <f t="shared" si="44"/>
-        <v>0.1025145067698259</v>
-      </c>
-      <c r="G53" s="153">
-        <f t="shared" si="44"/>
-        <v>3.1944444444444446</v>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" s="156" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" s="156" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H53" s="156" t="e">
+        <f t="shared" si="45"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.37645865043125315</v>
+      </c>
+      <c r="F54" s="157">
+        <f t="shared" si="46"/>
+        <v>1.0849102377486657</v>
+      </c>
+      <c r="G54" s="157">
+        <f t="shared" si="46"/>
+        <v>1.0345036319612591</v>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v>-</v>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="e">
-        <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F55" s="156" t="e">
-        <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" s="156" t="e">
-        <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H55" s="156" t="e">
-        <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>2.8994082840236687E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>8.6830680173661356E-2</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.1293800539083558</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>3.2647584973166367E-2</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>4.3300175541252192E-2</v>
+      </c>
+      <c r="H55" s="153">
+        <f t="shared" si="47"/>
+        <v>4.8465266558966073E-3</v>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.37645865043125315</v>
-      </c>
-      <c r="F56" s="157">
-        <f t="shared" si="46"/>
-        <v>1.0849102377486657</v>
-      </c>
-      <c r="G56" s="157">
-        <f t="shared" si="46"/>
-        <v>1.0345036319612591</v>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v>-</v>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>2.8994082840236687E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>8.6830680173661356E-2</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.1293800539083558</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>3.2647584973166367E-2</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>4.3300175541252192E-2</v>
-      </c>
-      <c r="H57" s="153">
-        <f t="shared" si="47"/>
-        <v>4.8465266558966073E-3</v>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158">
-        <f t="shared" si="48"/>
-        <v>1.8187898089171974</v>
-      </c>
-      <c r="F58" s="158">
-        <f t="shared" si="48"/>
-        <v>2.0655831739961759</v>
-      </c>
-      <c r="G58" s="158">
-        <f t="shared" si="48"/>
-        <v>2.0135777325186694</v>
-      </c>
-      <c r="H58" s="158">
-        <f t="shared" si="48"/>
-        <v>1.9508919202518362</v>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9098,12 +9029,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9785,27 +9712,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9997,7 +9927,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10044,7 +9974,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10072,7 +10002,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10155,7 +10085,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10177,7 +10107,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10245,7 +10175,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10567,7 +10497,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10704,7 +10634,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11035,7 +10965,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11101,7 +11031,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11136,7 +11066,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11157,7 +11087,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11178,7 +11108,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11193,7 +11123,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11224,7 +11154,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11238,7 +11168,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11259,7 +11189,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11274,7 +11204,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11296,7 +11226,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11304,11 +11234,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11336,7 +11266,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11408,7 +11338,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11438,7 +11368,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11468,7 +11398,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11526,12 +11456,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11561,7 +11491,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11591,7 +11521,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11642,7 +11572,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11673,7 +11603,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11694,28 +11624,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8084022486985594E-2</v>
+        <v>7.8461444163558922E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8084022486985594E-2</v>
+        <v>7.8461444163558922E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8084022486985594E-2</v>
+        <v>7.8461444163558922E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11745,21 +11675,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9571902819343921E-2</v>
+        <v>9.0004851541236094E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9571902819343921E-2</v>
+        <v>9.0004851541236094E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9571902819343921E-2</v>
+        <v>9.0004851541236094E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11776,27 +11706,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11815,24 +11745,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.038072655615522</v>
+        <v>96.199286511826188</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.038072655615522</v>
+        <v>96.199286511826188</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11843,18 +11773,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.16344591974496</v>
+        <v>116.38593809251253</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.16344591974496</v>
+        <v>116.38593809251253</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11873,14 +11803,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11893,31 +11823,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12083518.498351073</v>
+        <v>12103802.439499054</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.747895427258889</v>
+        <v>47.828047205974556</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.747895427258889</v>
+        <v>47.828047205974556</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>65.173100561792367</v>
+        <v>65.282503078650947</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11935,7 +11865,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11960,27 +11890,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12083518.498351073</v>
+        <v>12103802.439499054</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.585711113170056</v>
+        <v>40.653840125078375</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.747895427258889</v>
+        <v>47.828047205974556</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>47.747895427258889</v>
+        <v>47.828047205974556</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.747895427258889</v>
+        <v>47.828047205974556</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>65.173100561792367</v>
+        <v>65.282503078650947</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11990,21 +11920,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12017,31 +11947,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14615694.680138584</v>
+        <v>14643688.664305842</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.090698382871516</v>
+        <v>49.18472362514462</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>57.753762803378251</v>
+        <v>57.864380735464259</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>57.753762803378251</v>
+        <v>57.864380735464259</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>57.753762803378251</v>
+        <v>57.864380735464259</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>78.83052765625439</v>
+        <v>78.981514700756932</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12051,21 +11981,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12078,31 +12008,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13349606.589244828</v>
+        <v>13373745.551902447</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>44.838204748020786</v>
+        <v>44.919281875111494</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>52.750829115318567</v>
+        <v>52.846213970719404</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>52.750829115318567</v>
+        <v>52.846213970719404</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>52.750829115318567</v>
+        <v>52.846213970719404</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>72.001814109023371</v>
+        <v>72.13200888970394</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12111,7 +12041,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6410A907-6BBE-4CA7-BBE1-9C8F5C9B3CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70C5E0A-8B4D-46FF-9B62-90ABA1AA5362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45639</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>253069133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45382</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.23</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,539 +3042,543 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>2145700</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>2241700</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>2370500</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>2372300</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>2165500</v>
       </c>
-      <c r="H25" s="149">
+      <c r="H25" s="148">
         <v>2161900</v>
       </c>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>1510800</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>1608000</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>1701400</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>1645700</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>1501900</v>
       </c>
-      <c r="H26" s="150">
+      <c r="H26" s="149">
         <v>1525500</v>
       </c>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>356300</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>371600</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>380500</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>378200</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>368100</v>
       </c>
-      <c r="H27" s="150">
+      <c r="H27" s="149">
         <v>371900</v>
       </c>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>81700</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>83300</v>
       </c>
-      <c r="E28" s="150">
+      <c r="E28" s="149">
         <v>84300</v>
       </c>
-      <c r="F28" s="150">
+      <c r="F28" s="149">
         <v>86400</v>
       </c>
-      <c r="G28" s="150">
+      <c r="G28" s="149">
         <v>81700</v>
       </c>
-      <c r="H28" s="150">
+      <c r="H28" s="149">
         <v>77200</v>
       </c>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>4900</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>12000</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>9600</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>7300</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>7400</v>
       </c>
-      <c r="H29" s="150">
+      <c r="H29" s="149">
         <v>900</v>
       </c>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
-        <v>0</v>
-      </c>
-      <c r="D30" s="150">
-        <v>0</v>
-      </c>
-      <c r="E30" s="150">
-        <v>0</v>
-      </c>
-      <c r="F30" s="150">
-        <v>0</v>
-      </c>
-      <c r="G30" s="150">
-        <v>0</v>
-      </c>
-      <c r="H30" s="150">
-        <v>0</v>
-      </c>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="C30" s="149">
+        <v>0</v>
+      </c>
+      <c r="D30" s="149">
+        <v>0</v>
+      </c>
+      <c r="E30" s="149">
+        <v>0</v>
+      </c>
+      <c r="F30" s="149">
+        <v>0</v>
+      </c>
+      <c r="G30" s="149">
+        <v>0</v>
+      </c>
+      <c r="H30" s="149">
+        <v>0</v>
+      </c>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <f>(-127.5-40.3+48.2+1.6+0.1)*1000</f>
         <v>-117900.00000000001</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <f>(-77.8-60+100.3+2.7+0.3)*1000</f>
         <v>-34500.000000000015</v>
       </c>
-      <c r="E31" s="150">
+      <c r="E31" s="149">
         <f>(139.3+63.6-109.2-1.9)*1000</f>
         <v>91800</v>
       </c>
-      <c r="F31" s="150">
+      <c r="F31" s="149">
         <f>(41.4+49.7-67.5-2.2-0.2)*1000</f>
         <v>21199.999999999996</v>
       </c>
-      <c r="G31" s="150">
+      <c r="G31" s="149">
         <v>11500</v>
       </c>
-      <c r="H31" s="150">
+      <c r="H31" s="149">
         <v>-43500</v>
       </c>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <f>33200+21600+600</f>
         <v>55400</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <f>34700+21100+700</f>
         <v>56500</v>
       </c>
-      <c r="E32" s="150">
+      <c r="E32" s="149">
         <f>(41.4+22.4+0.8)*1000</f>
         <v>64599.999999999993</v>
       </c>
-      <c r="F32" s="150">
+      <c r="F32" s="149">
         <f>(36.6+21.8+0.9)*1000</f>
         <v>59300.000000000007</v>
       </c>
-      <c r="G32" s="150">
+      <c r="G32" s="149">
         <v>57200</v>
       </c>
-      <c r="H32" s="150">
+      <c r="H32" s="149">
         <v>38000</v>
       </c>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>32400</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>27900</v>
       </c>
-      <c r="E33" s="150">
+      <c r="E33" s="149">
         <v>35900</v>
       </c>
-      <c r="F33" s="150">
+      <c r="F33" s="149">
         <v>49400</v>
       </c>
-      <c r="G33" s="150">
+      <c r="G33" s="149">
         <v>33200</v>
       </c>
-      <c r="H33" s="150">
+      <c r="H33" s="149">
         <v>37300</v>
       </c>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150">
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149">
         <v>1142200</v>
       </c>
-      <c r="F34" s="150">
+      <c r="F34" s="149">
         <v>1080300</v>
       </c>
-      <c r="G34" s="150">
+      <c r="G34" s="149">
         <v>889800</v>
       </c>
-      <c r="H34" s="150">
+      <c r="H34" s="149">
         <v>929600</v>
       </c>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149">
         <v>628000</v>
       </c>
-      <c r="F37" s="150">
+      <c r="F37" s="149">
         <v>523000</v>
       </c>
-      <c r="G37" s="150">
+      <c r="G37" s="149">
         <v>441900</v>
       </c>
-      <c r="H37" s="150">
+      <c r="H37" s="149">
         <v>476500</v>
       </c>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149">
         <v>20600</v>
       </c>
-      <c r="F39" s="150">
+      <c r="F39" s="149">
         <v>17500</v>
       </c>
-      <c r="G39" s="150">
+      <c r="G39" s="149">
         <v>17900</v>
       </c>
-      <c r="H39" s="150">
-        <v>0</v>
-      </c>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="H39" s="149">
+        <v>0</v>
+      </c>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149">
         <v>176500</v>
       </c>
-      <c r="F40" s="150">
+      <c r="F40" s="149">
         <v>188600</v>
       </c>
-      <c r="G40" s="150">
+      <c r="G40" s="149">
         <v>147300</v>
       </c>
-      <c r="H40" s="150">
-        <v>0</v>
-      </c>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="H40" s="149">
+        <v>0</v>
+      </c>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149">
         <v>678800</v>
       </c>
-      <c r="F41" s="150">
+      <c r="F41" s="149">
         <v>731100</v>
       </c>
-      <c r="G41" s="150">
+      <c r="G41" s="149">
         <v>601500</v>
       </c>
-      <c r="H41" s="150">
+      <c r="H41" s="149">
         <v>607000</v>
       </c>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.58985854464659881</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0004851541236094E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>9.0090483599901489E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3637,7 +3649,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3665,7 +3677,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3677,7 +3689,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3696,8 +3708,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3749,7 +3761,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3765,7 +3777,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3777,7 +3789,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3790,7 +3802,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3838,14 +3850,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3869,7 +3881,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3899,19 +3911,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>267</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3927,20 +3939,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3970,10 +3982,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3985,12 +3997,12 @@
         <f>C25</f>
         <v>2145700</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>2145700</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>2145700</v>
       </c>
@@ -4003,75 +4015,75 @@
         <f>C26</f>
         <v>1510800</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>1510800</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>1510800</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>438000</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>438000</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>438000</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>4900</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>4900.0000000000009</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>23000</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>23000</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>23000</v>
       </c>
@@ -4084,12 +4096,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4102,12 +4114,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4116,16 +4128,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.58985854464659881</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.58985854464659881</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.58985854464659881</v>
       </c>
@@ -4206,7 +4218,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4258,11 +4270,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>50.95</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>50.9</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4300,7 +4312,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>12893.87232635</v>
+        <v>12881.218869699998</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4310,11 +4322,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4336,11 +4348,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4348,8 +4360,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>7.7743167877197266</v>
+      <c r="G7" s="132">
+        <v>7.7740767796834307</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4358,10 +4370,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4369,7 +4381,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4377,13 +4389,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4392,12 +4404,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4407,7 +4419,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4418,7 +4430,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4426,13 +4438,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4442,49 +4454,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4492,79 +4504,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.745113356764413</v>
+        <v>12.732998977408759</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>1.1471220355518064</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.0004851541236094E-2</v>
+        <v>9.0090483599901489E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4581,10 +4593,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4592,22 +4604,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.653840125078375</v>
-      </c>
-      <c r="D29" s="129">
+        <v>40.666656564474501</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>75.07487854044858</v>
+        <v>75.098546480009162</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.828047205974556</v>
+        <v>47.843125369970004</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.282503078650947</v>
+        <v>65.303083895660151</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4615,23 +4627,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4639,9 +4651,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4649,17 +4661,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4667,26 +4679,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4694,9 +4706,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4709,16 +4721,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5670,10 +5682,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5699,16 +5711,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5722,11 +5734,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85">
@@ -5751,7 +5763,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5759,7 +5771,7 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93">
@@ -5823,47 +5835,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>2145700</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2241700</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>2370500</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>2372300</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>2165500</v>
       </c>
-      <c r="H6" s="200">
+      <c r="H6" s="199">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>2161900</v>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5925,47 +5937,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1510800</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1608000</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>1701400</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>1645700</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>1501900</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>1525500</v>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5976,47 +5988,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>634900</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>633700</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>669100</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>726600</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>663600</v>
       </c>
-      <c r="H9" s="151">
+      <c r="H9" s="150">
         <f t="shared" si="2"/>
         <v>636400</v>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6027,47 +6039,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>356300</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>371600</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>380500</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>378200</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>368100</v>
       </c>
-      <c r="H10" s="199">
+      <c r="H10" s="198">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>371900</v>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6078,47 +6090,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>81700</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>83300</v>
       </c>
-      <c r="E11" s="199">
+      <c r="E11" s="198">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>84300</v>
       </c>
-      <c r="F11" s="199">
+      <c r="F11" s="198">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v>86400</v>
       </c>
-      <c r="G11" s="199">
+      <c r="G11" s="198">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v>81700</v>
       </c>
-      <c r="H11" s="199">
+      <c r="H11" s="198">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v>77200</v>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6127,49 +6139,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="199">
+      <c r="H12" s="198">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6177,50 +6189,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>7.9760895748762106E-2</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>8.6184349293398022E-2</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.11044134384352738</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>9.8730085430616482E-2</v>
       </c>
-      <c r="H13" s="229">
+      <c r="H13" s="226">
         <f t="shared" si="3"/>
         <v>8.6636754706508168E-2</v>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6228,50 +6240,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>196900</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>178800</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>204300</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>262000</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>213800</v>
       </c>
-      <c r="H14" s="230">
+      <c r="H14" s="227">
         <f t="shared" si="4"/>
         <v>187300</v>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6279,50 +6291,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.10123042505592841</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.12481644640234948</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>-0.2202290076335878</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>0.225444340505145</v>
       </c>
-      <c r="G15" s="232">
+      <c r="G15" s="229">
         <f t="shared" si="5"/>
         <v>0.1414842498665243</v>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6333,47 +6345,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-117900.00000000001</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-34500.000000000015</v>
       </c>
-      <c r="E16" s="199">
+      <c r="E16" s="198">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>91800</v>
       </c>
-      <c r="F16" s="199">
+      <c r="F16" s="198">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>21199.999999999996</v>
       </c>
-      <c r="G16" s="199">
+      <c r="G16" s="198">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>11500</v>
       </c>
-      <c r="H16" s="199">
+      <c r="H16" s="198">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-43500</v>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6382,49 +6394,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>4900</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>12000</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>9600</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>7300</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>7400</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="198">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>900</v>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6435,47 +6447,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>2.5819080020506129E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>2.5204086184592051E-2</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="151">
         <f t="shared" si="6"/>
         <v>2.7251634676228639E-2</v>
       </c>
-      <c r="F18" s="152">
+      <c r="F18" s="151">
         <f t="shared" si="6"/>
         <v>2.4996838511149519E-2</v>
       </c>
-      <c r="G18" s="152">
+      <c r="G18" s="151">
         <f t="shared" si="6"/>
         <v>2.6414223043177094E-2</v>
       </c>
-      <c r="H18" s="152">
+      <c r="H18" s="151">
         <f t="shared" si="6"/>
         <v>1.7577131227161293E-2</v>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6486,47 +6498,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>55400</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>56500</v>
       </c>
-      <c r="E19" s="199">
+      <c r="E19" s="198">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>64599.999999999993</v>
       </c>
-      <c r="F19" s="199">
+      <c r="F19" s="198">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>59300.000000000007</v>
       </c>
-      <c r="G19" s="199">
+      <c r="G19" s="198">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>57200</v>
       </c>
-      <c r="H19" s="199">
+      <c r="H19" s="198">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>38000</v>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6535,49 +6547,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>1.5099967376613692E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>1.2445911584957845E-2</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>1.5144484286015608E-2</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>2.0823673228512415E-2</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>1.5331332255830062E-2</v>
       </c>
-      <c r="H20" s="152">
+      <c r="H20" s="151">
         <f t="shared" si="7"/>
         <v>1.7253341967713585E-2</v>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6588,47 +6600,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>32400</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>27900</v>
       </c>
-      <c r="E21" s="199">
+      <c r="E21" s="198">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>35900</v>
       </c>
-      <c r="F21" s="199">
+      <c r="F21" s="198">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>49400</v>
       </c>
-      <c r="G21" s="199">
+      <c r="G21" s="198">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>33200</v>
       </c>
-      <c r="H21" s="199">
+      <c r="H21" s="198">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>37300</v>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6639,47 +6651,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>169000</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>138200</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>74200</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>223600</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>170900</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="160">
         <f t="shared" si="8"/>
         <v>185700</v>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6690,47 +6702,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>6.0646875145640121E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>4.7470223491100506E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>2.4102088167053365E-2</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>7.2575981115373264E-2</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>6.0767951974139922E-2</v>
       </c>
-      <c r="H23" s="153">
+      <c r="H23" s="152">
         <f t="shared" si="9"/>
         <v>6.6140432027383317E-2</v>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6741,7 +6753,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>130130</v>
       </c>
@@ -6789,50 +6801,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.22286541244573083</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>0.86253369272237201</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>-0.66815742397137745</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>0.30836746635459333</v>
       </c>
-      <c r="G25" s="233">
+      <c r="G25" s="230">
         <f t="shared" si="10"/>
         <v>-7.9698438341410882E-2</v>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6949,43 +6961,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7000,43 +7012,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7045,49 +7057,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199">
+      <c r="E30" s="198">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>628000</v>
       </c>
-      <c r="F30" s="199">
+      <c r="F30" s="198">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>523000</v>
       </c>
-      <c r="G30" s="199">
+      <c r="G30" s="198">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>441900</v>
       </c>
-      <c r="H30" s="199">
+      <c r="H30" s="198">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v>476500</v>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7102,43 +7114,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199">
+      <c r="E31" s="198">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>20600</v>
       </c>
-      <c r="F31" s="199">
+      <c r="F31" s="198">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>17500</v>
       </c>
-      <c r="G31" s="199">
+      <c r="G31" s="198">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>17900</v>
       </c>
-      <c r="H31" s="199">
+      <c r="H31" s="198">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7153,43 +7165,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199">
+      <c r="E32" s="198">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>176500</v>
       </c>
-      <c r="F32" s="199">
+      <c r="F32" s="198">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>188600</v>
       </c>
-      <c r="G32" s="199">
+      <c r="G32" s="198">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>147300</v>
       </c>
-      <c r="H32" s="199">
+      <c r="H32" s="198">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7255,43 +7267,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199">
+      <c r="E34" s="198">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>678800</v>
       </c>
-      <c r="F34" s="199">
+      <c r="F34" s="198">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>731100</v>
       </c>
-      <c r="G34" s="199">
+      <c r="G34" s="198">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>601500</v>
       </c>
-      <c r="H34" s="199">
+      <c r="H34" s="198">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v>607000</v>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7306,43 +7318,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7357,43 +7369,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7455,47 +7467,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7504,7 +7516,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7524,47 +7536,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.7173127537136994</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.71773887365534694</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.69371496016524048</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.69355806972985456</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="155">
         <f t="shared" si="34"/>
         <v>0.70562930755354092</v>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7573,49 +7585,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.20292635053753846</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.19607677705125501</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.19584369599123214</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>0.20771184483952898</v>
       </c>
-      <c r="H41" s="153">
+      <c r="H41" s="152">
         <f t="shared" si="35"/>
         <v>0.20773393773995097</v>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7626,47 +7638,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>3.8726007171482807E-2</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>8.9364751506976342E-3</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>5.3105518356037868E-3</v>
       </c>
-      <c r="H42" s="153">
+      <c r="H42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7677,47 +7689,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>5.3530802515947716E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>4.0497785277367644E-3</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>3.07718248113645E-3</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>3.417224659432002E-3</v>
       </c>
-      <c r="H43" s="153">
+      <c r="H43" s="152">
         <f t="shared" si="37"/>
         <v>4.1630047643276746E-4</v>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7728,47 +7740,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="153">
+      <c r="H44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7777,49 +7789,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>1.2758174599634206E-2</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>1.2107150390213033E-2</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>4.1731652826371059E-3</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>1.1082890787347033E-2</v>
       </c>
-      <c r="H45" s="153">
+      <c r="H45" s="152">
         <f t="shared" si="39"/>
         <v>3.2378925944770805E-4</v>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7830,47 +7842,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>7.8762175513818339E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>6.1649640897533123E-2</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>3.1301413203965407E-2</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>9.4254520929056188E-2</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>7.8919418148233667E-2</v>
       </c>
-      <c r="H46" s="153">
+      <c r="H46" s="152">
         <f t="shared" si="40"/>
         <v>8.5896664970627687E-2</v>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7879,9 +7891,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7896,50 +7910,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272">
+      <c r="E48" s="269">
         <f t="shared" si="41"/>
         <v>1.813973063973064</v>
       </c>
-      <c r="F48" s="272">
+      <c r="F48" s="269">
         <f t="shared" si="41"/>
         <v>1.8916354357706722</v>
       </c>
-      <c r="G48" s="272">
+      <c r="G48" s="269">
         <f t="shared" si="41"/>
         <v>2.0754264903201074</v>
       </c>
-      <c r="H48" s="272">
+      <c r="H48" s="269">
         <f t="shared" si="41"/>
         <v>1.9952930318412552</v>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7948,49 +7962,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7999,49 +8013,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8050,49 +8064,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>1.2281250000000001</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>0.26785714285714296</v>
       </c>
-      <c r="E51" s="153">
+      <c r="E51" s="152">
         <f t="shared" si="44"/>
         <v>-51</v>
       </c>
-      <c r="F51" s="153">
+      <c r="F51" s="152">
         <f t="shared" si="44"/>
         <v>0.1025145067698259</v>
       </c>
-      <c r="G51" s="153">
+      <c r="G51" s="152">
         <f t="shared" si="44"/>
         <v>3.1944444444444446</v>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8101,7 +8115,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8118,49 +8132,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="e">
+      <c r="E53" s="155" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F53" s="156" t="e">
+      <c r="F53" s="155" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G53" s="156" t="e">
+      <c r="G53" s="155" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="156" t="e">
+      <c r="H53" s="155" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8170,47 +8184,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157">
+      <c r="E54" s="156">
         <f t="shared" si="46"/>
         <v>0.37645865043125315</v>
       </c>
-      <c r="F54" s="157">
+      <c r="F54" s="156">
         <f t="shared" si="46"/>
         <v>1.0849102377486657</v>
       </c>
-      <c r="G54" s="157">
+      <c r="G54" s="156">
         <f t="shared" si="46"/>
         <v>1.0345036319612591</v>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8220,47 +8234,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>2.8994082840236687E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>8.6830680173661356E-2</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>0.1293800539083558</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>3.2647584973166367E-2</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>4.3300175541252192E-2</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="152">
         <f t="shared" si="47"/>
         <v>4.8465266558966073E-3</v>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8270,47 +8284,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8318,149 +8332,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="e">
+      <c r="H58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="e">
+      <c r="H59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9756,8 +9770,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9793,8 +9807,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9806,8 +9820,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9817,8 +9831,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9905,11 +9919,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9952,7 +9966,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9980,7 +9994,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10008,7 +10022,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10036,7 +10050,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10049,7 +10063,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10064,7 +10078,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10091,7 +10105,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10113,7 +10127,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10135,7 +10149,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10156,7 +10170,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10164,7 +10178,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10181,7 +10195,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10189,7 +10203,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10208,7 +10222,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10229,7 +10243,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10394,7 +10408,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10423,7 +10437,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10449,7 +10463,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10476,7 +10490,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10503,7 +10517,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10519,7 +10533,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10533,7 +10547,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10560,7 +10574,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10568,7 +10582,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10586,7 +10600,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10594,7 +10608,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10613,7 +10627,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10621,7 +10635,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10640,7 +10654,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10661,7 +10675,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10682,7 +10696,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10703,7 +10717,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10724,7 +10738,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10870,8 +10884,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10897,8 +10911,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10968,7 +10982,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11068,7 +11082,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -11076,7 +11090,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -11107,11 +11121,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11188,12 +11202,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11272,17 +11286,17 @@
         <f>Data!C6</f>
         <v>2145700</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>2145700</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>2145700</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11293,23 +11307,23 @@
         <f>Data!C8</f>
         <v>1510800</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>1510800</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>1510800</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.70410588619098657</v>
       </c>
@@ -11319,48 +11333,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>634900</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>634900</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>634900</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>438000</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>438000</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>438000</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.20412918860977769</v>
       </c>
@@ -11374,54 +11388,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>196900</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>196900</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>196900</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>9.1764925199235681E-2</v>
       </c>
@@ -11435,55 +11449,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>4900</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>4900.0000000000009</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>4900.0000000000009</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>2.2836370415249105E-3</v>
       </c>
@@ -11491,29 +11505,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>23000</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>23000</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>23000</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>1.0719112643892435E-2</v>
       </c>
@@ -11523,27 +11537,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>169000</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>7.8762175513818339E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>169000</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>7.8762175513818339E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>169000</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>7.8762175513818339E-2</v>
       </c>
@@ -11553,49 +11567,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.23</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.23</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>130130</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>6.0646875145640121E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>130130</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>6.0646875145640121E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>130130</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>6.0646875145640121E-2</v>
       </c>
@@ -11605,69 +11619,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.51420731741314341</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.51420731741314341</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.51420731741314341</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8461444163558922E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>7.853609363938753E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8461444163558922E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>7.853609363938753E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8461444163558922E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>7.853609363938753E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.58985854464659881</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>1.1471220355518064</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.58985854464659881</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>1.1471220355518064</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.58985854464659881</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>1.1471220355518064</v>
       </c>
@@ -11675,23 +11689,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0004851541236094E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>9.0090483599901489E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0004851541236094E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>9.0090483599901489E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0004851541236094E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>9.0090483599901489E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11713,7 +11727,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11736,27 +11750,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.199286511826188</v>
+        <v>96.229614085352736</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.199286511826188</v>
+        <v>96.229614085352736</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11764,27 +11778,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.38593809251253</v>
+        <v>116.42806788655601</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.38593809251253</v>
+        <v>116.42806788655601</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11798,25 +11812,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11827,21 +11841,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12103802.439499054</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>12107618.257388612</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.828047205974556</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>47.843125369970004</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.828047205974556</v>
-      </c>
-      <c r="I97" s="123">
+        <v>47.843125369970004</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>65.282503078650947</v>
+        <v>65.303083895660151</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11853,14 +11867,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11871,17 +11885,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11890,27 +11904,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12103802.439499054</v>
+        <v>12107618.257388612</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.653840125078375</v>
+        <v>40.666656564474501</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.828047205974556</v>
+        <v>47.843125369970004</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>47.828047205974556</v>
+        <v>47.843125369970004</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.828047205974556</v>
+        <v>47.843125369970004</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>65.282503078650947</v>
+        <v>65.303083895660151</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11922,25 +11936,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11951,27 +11965,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14643688.664305842</v>
+        <v>14648989.438588157</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.18472362514462</v>
-      </c>
-      <c r="E103" s="123">
+        <v>49.202527685586745</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>57.864380735464259</v>
+        <v>57.885326688925581</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>57.864380735464259</v>
-      </c>
-      <c r="H103" s="123">
+        <v>57.885326688925581</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>57.864380735464259</v>
+        <v>57.885326688925581</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>78.981514700756932</v>
+        <v>79.010104709155883</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11983,25 +11997,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -12012,27 +12026,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13373745.551902447</v>
+        <v>13378303.847988386</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>44.919281875111494</v>
-      </c>
-      <c r="E106" s="123">
+        <v>44.934592125030619</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>52.846213970719404</v>
+        <v>52.864226029447792</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>52.846213970719404</v>
-      </c>
-      <c r="H106" s="123">
+        <v>52.864226029447792</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>52.846213970719404</v>
-      </c>
-      <c r="I106" s="123">
+        <v>52.864226029447792</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>72.13200888970394</v>
+        <v>72.156594302408024</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12043,14 +12057,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70C5E0A-8B4D-46FF-9B62-90ABA1AA5362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A28CC-E795-4270-88DE-739F180B1D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Interest-bearing Debt</t>
-  </si>
-  <si>
-    <t>Current Ratio</t>
   </si>
   <si>
     <t>Output</t>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2017,9 +2014,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2812,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2826,30 +2820,30 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
+        <v>179</v>
+      </c>
+      <c r="C4" s="186" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
-        <v>269</v>
+        <v>180</v>
+      </c>
+      <c r="C5" s="189" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
+        <v>154</v>
+      </c>
+      <c r="C6" s="187">
         <v>45639</v>
       </c>
     </row>
@@ -2857,141 +2851,141 @@
       <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="189">
+      <c r="C7" s="188">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="264"/>
+        <v>200</v>
+      </c>
+      <c r="C8" s="189" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="263"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="191" t="s">
-        <v>271</v>
+        <v>201</v>
+      </c>
+      <c r="C9" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
+        <v>202</v>
+      </c>
+      <c r="C10" s="191">
         <v>253069133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="139" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="190" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="215">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="216">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="214" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="215">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>176</v>
+      <c r="B15" s="214" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="174" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="218" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="219">
         <v>0.23</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="236" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="238" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="236" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="238" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="236" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="238" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="237" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="238" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="220" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="238" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="222" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="239" t="s">
+        <v>240</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3068,7 +3062,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="149">
         <v>1510800</v>
@@ -3096,7 +3090,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="149">
         <v>356300</v>
@@ -3124,7 +3118,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="149">
         <v>81700</v>
@@ -3152,7 +3146,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="149">
         <v>4900</v>
@@ -3180,7 +3174,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="149">
         <v>0</v>
@@ -3208,7 +3202,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="149">
         <f>(-127.5-40.3+48.2+1.6+0.1)*1000</f>
@@ -3240,7 +3234,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="149">
         <f>33200+21600+600</f>
@@ -3272,7 +3266,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="149">
         <v>32400</v>
@@ -3300,9 +3294,9 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
+        <v>262</v>
+      </c>
+      <c r="C34" s="213"/>
       <c r="D34" s="149"/>
       <c r="E34" s="149">
         <v>1142200</v>
@@ -3324,9 +3318,9 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
+        <v>111</v>
+      </c>
+      <c r="C35" s="213"/>
       <c r="D35" s="149"/>
       <c r="E35" s="149"/>
       <c r="F35" s="149"/>
@@ -3340,9 +3334,9 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
+        <v>140</v>
+      </c>
+      <c r="C36" s="213"/>
       <c r="D36" s="149"/>
       <c r="E36" s="149"/>
       <c r="F36" s="149"/>
@@ -3356,12 +3350,16 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="149">
-        <v>0</v>
-      </c>
-      <c r="D37" s="149"/>
+        <f>669800+139500</f>
+        <v>809300</v>
+      </c>
+      <c r="D37" s="149">
+        <f>517200+166500</f>
+        <v>683700</v>
+      </c>
       <c r="E37" s="149">
         <v>628000</v>
       </c>
@@ -3382,9 +3380,9 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
+        <v>261</v>
+      </c>
+      <c r="C38" s="213"/>
       <c r="D38" s="149"/>
       <c r="E38" s="149"/>
       <c r="F38" s="149"/>
@@ -3400,7 +3398,7 @@
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
+      <c r="C39" s="213"/>
       <c r="D39" s="149"/>
       <c r="E39" s="149">
         <v>20600</v>
@@ -3424,7 +3422,7 @@
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
+      <c r="C40" s="213"/>
       <c r="D40" s="149"/>
       <c r="E40" s="149">
         <v>176500</v>
@@ -3446,12 +3444,14 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="149">
-        <v>0</v>
-      </c>
-      <c r="D41" s="149"/>
+        <v>627000</v>
+      </c>
+      <c r="D41" s="149">
+        <v>634700</v>
+      </c>
       <c r="E41" s="149">
         <v>678800</v>
       </c>
@@ -3472,16 +3472,26 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="149">
         <v>0</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
+      <c r="D42" s="149">
+        <v>0</v>
+      </c>
+      <c r="E42" s="149">
+        <v>0</v>
+      </c>
+      <c r="F42" s="149">
+        <v>0</v>
+      </c>
+      <c r="G42" s="149">
+        <v>0</v>
+      </c>
+      <c r="H42" s="149">
+        <v>0</v>
+      </c>
       <c r="I42" s="149"/>
       <c r="J42" s="149"/>
       <c r="K42" s="149"/>
@@ -3490,9 +3500,9 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
+        <v>130</v>
+      </c>
+      <c r="C43" s="213"/>
       <c r="D43" s="149"/>
       <c r="E43" s="149"/>
       <c r="F43" s="149"/>
@@ -3506,49 +3516,65 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
-        <v>0.58985854464659881</v>
-      </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+        <v>192</v>
+      </c>
+      <c r="C44" s="246">
+        <f>0.48+0.17</f>
+        <v>0.65</v>
+      </c>
+      <c r="D44" s="246">
+        <f>0.42+0.17</f>
+        <v>0.59</v>
+      </c>
+      <c r="E44" s="246">
+        <f>0.51+0.17</f>
+        <v>0.68</v>
+      </c>
+      <c r="F44" s="246">
+        <f>0.74+0.17</f>
+        <v>0.91</v>
+      </c>
+      <c r="G44" s="246">
+        <f>0.36+0.17</f>
+        <v>0.53</v>
+      </c>
+      <c r="H44" s="246">
+        <f>0.5+0.17</f>
+        <v>0.67</v>
+      </c>
+      <c r="I44" s="246"/>
+      <c r="J44" s="246"/>
+      <c r="K44" s="246"/>
+      <c r="L44" s="246"/>
+      <c r="M44" s="246"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0090483599901489E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>9.9470557972515042E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>9.0288660313513652E-2</v>
+      </c>
+      <c r="E45" s="151">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="F45" s="151" t="str">
+        <v>0.10406150680201574</v>
+      </c>
+      <c r="F45" s="151">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="G45" s="151" t="str">
+        <v>0.13925878116152107</v>
+      </c>
+      <c r="G45" s="151">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v/>
-      </c>
-      <c r="H45" s="151" t="str">
+        <v>8.1106762654512263E-2</v>
+      </c>
+      <c r="H45" s="151">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v/>
+        <v>0.10253119052551551</v>
       </c>
       <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3573,21 +3599,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
+        <v>231</v>
+      </c>
+      <c r="C47" s="192" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="192" t="s">
+        <v>181</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -3597,7 +3623,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3607,7 +3633,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3618,7 +3644,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -3628,7 +3654,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -3638,7 +3664,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3649,7 +3675,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3659,7 +3685,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -3670,32 +3696,32 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="217" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="217" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -3706,10 +3732,10 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="119"/>
-      <c r="D59" s="194">
+      <c r="D59" s="193">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3717,7 +3743,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -3728,7 +3754,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -3739,7 +3765,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -3750,7 +3776,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3761,7 +3787,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3771,44 +3797,44 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="217" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="217" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="217" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3819,7 +3845,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -3830,7 +3856,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -3840,7 +3866,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -3850,36 +3876,36 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="242" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="243"/>
+      <c r="D72" s="244">
+        <v>0</v>
+      </c>
+      <c r="E72" s="245"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C76" s="119"/>
     </row>
@@ -3891,85 +3917,85 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C81" s="119"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>265</v>
+      </c>
+      <c r="C82" s="213"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>266</v>
+      </c>
+      <c r="C83" s="213"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>232</v>
+      </c>
+      <c r="C86" s="195">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="232" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="265">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="283"/>
+      <c r="D89" s="282"/>
       <c r="E89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3978,168 +4004,168 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="231" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="251" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>2145700</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="205"/>
+      <c r="E91" s="247">
         <f>C91</f>
         <v>2145700</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="247">
         <f>C91</f>
         <v>2145700</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>1510800</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="157">
         <f>C92/C91</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="248">
         <f>E91*D92</f>
         <v>1510800</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="248">
         <f>F91*D92</f>
         <v>1510800</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>438000</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="157">
         <f>C93/C91</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="248">
         <f>E91*D93</f>
         <v>438000</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="248">
         <f>F91*D93</f>
         <v>438000</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>4900</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="157">
         <f>C94/C91</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="249"/>
+      <c r="F94" s="248">
         <f>F91*D94</f>
         <v>4900.0000000000009</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>23000</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="157">
         <f>C95/C91</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="248">
         <f>E91*D95</f>
         <v>23000</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="248">
         <f>F91*D95</f>
         <v>23000</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="157">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="249"/>
+      <c r="F96" s="248">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="157">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="249"/>
+      <c r="F97" s="248">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+        <v>192</v>
+      </c>
+      <c r="C98" s="233">
         <f>C44</f>
-        <v>0.58985854464659881</v>
-      </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+        <v>0.65</v>
+      </c>
+      <c r="D98" s="262"/>
+      <c r="E98" s="250">
         <f>F98</f>
-        <v>0.58985854464659881</v>
-      </c>
-      <c r="F98" s="251">
+        <v>0.65</v>
+      </c>
+      <c r="F98" s="250">
         <f>C98</f>
-        <v>0.58985854464659881</v>
+        <v>0.65</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -4149,7 +4175,7 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98 D34:M43">
     <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
@@ -4218,7 +4244,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4259,62 +4285,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0303.HK</v>
       </c>
-      <c r="D3" s="290"/>
+      <c r="D3" s="289"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="H3" s="133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>VTECH</v>
       </c>
-      <c r="D4" s="292"/>
+      <c r="D4" s="291"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>253069133</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>12881.218869699998</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>12855.911956399999</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4322,11 +4348,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="183">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="184">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4337,22 +4363,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+        <v>177</v>
+      </c>
+      <c r="C7" s="185" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="185" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
@@ -4361,7 +4387,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>7.7740767796834307</v>
+        <v>7.7740066846211748</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4371,45 +4397,45 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="170">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+        <v>166</v>
+      </c>
+      <c r="C11" s="171">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+        <v>235</v>
+      </c>
+      <c r="C12" s="172">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="170">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4417,166 +4443,166 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="170">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="171">
+        <v>172</v>
+      </c>
+      <c r="C15" s="170">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+        <v>173</v>
+      </c>
+      <c r="C16" s="171">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="261" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+        <v>236</v>
+      </c>
+      <c r="C17" s="173">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="174"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="141" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" s="134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="141" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="271" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="272">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>0.31403508771929822</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+        <v>196</v>
+      </c>
+      <c r="G20" s="170">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="273" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="274">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.43653832764742739</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="275" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="276">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
+        <v>1.4939079579475041</v>
       </c>
       <c r="F22" s="141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="277" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="278">
         <f>Data!C13</f>
         <v>9.1764925199235681E-2</v>
       </c>
       <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+        <v>174</v>
+      </c>
+      <c r="G23" s="175">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>2.6374876755606778</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+        <v>256</v>
+      </c>
+      <c r="C24" s="169">
         <f>Fin_Analysis!I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
       <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+        <v>241</v>
+      </c>
+      <c r="G24" s="264">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.732998977408759</v>
+        <v>12.708097845051446</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+        <v>257</v>
+      </c>
+      <c r="C25" s="169">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+        <v>161</v>
+      </c>
+      <c r="G25" s="169">
         <f>Fin_Analysis!I88</f>
-        <v>1.1471220355518064</v>
+        <v>1.2640815834165835</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+        <v>258</v>
+      </c>
+      <c r="C26" s="169">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.0719112643892435E-2</v>
       </c>
       <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+        <v>178</v>
+      </c>
+      <c r="G26" s="176">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.0090483599901489E-2</v>
+        <v>9.9470557972515042E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4586,64 +4612,64 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.666656564474501</v>
+        <v>40.69531017641124</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>75.098546480009162</v>
+        <v>75.151460704822298</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.843125369970004</v>
-      </c>
-      <c r="G29" s="286">
+        <v>47.876835501660281</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.303083895660151</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>65.349096265062869</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="194" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="220"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="241" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4651,9 +4677,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="221" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4661,17 +4687,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="194" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="220"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="241" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4679,26 +4705,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="241" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="194" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="220"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="241" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4706,9 +4732,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="241" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4721,16 +4747,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="222" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="240" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5680,12 +5706,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N929"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C53" sqref="C53:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5712,16 +5738,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="147" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>189</v>
-      </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5734,12 +5760,12 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="199">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
       <c r="E3" s="145" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="85">
         <f>H14</f>
@@ -5772,7 +5798,7 @@
         <v>USD</v>
       </c>
       <c r="E4" s="145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="93">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5783,7 +5809,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5835,47 +5861,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="198">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>2145700</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="198">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2241700</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="198">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>2370500</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="198">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>2372300</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="198">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>2165500</v>
       </c>
-      <c r="H6" s="199">
+      <c r="H6" s="198">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>2161900</v>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="198" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="198" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="198" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="198" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="198" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5935,49 +5961,49 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+        <v>101</v>
+      </c>
+      <c r="C8" s="197">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1510800</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="197">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1608000</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="197">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>1701400</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="197">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>1645700</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="197">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>1501900</v>
       </c>
-      <c r="H8" s="198">
+      <c r="H8" s="197">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>1525500</v>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="197" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="197" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="197" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="197" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="197" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5986,7 +6012,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6037,49 +6063,49 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+        <v>99</v>
+      </c>
+      <c r="C10" s="197">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>356300</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="197">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>371600</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="197">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>380500</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="197">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>378200</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="197">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>368100</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="197">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>371900</v>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="197" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="197" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="197" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="197" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="197" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6088,49 +6114,49 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+        <v>102</v>
+      </c>
+      <c r="C11" s="197">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>81700</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>83300</v>
       </c>
-      <c r="E11" s="198">
+      <c r="E11" s="197">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>84300</v>
       </c>
-      <c r="F11" s="198">
+      <c r="F11" s="197">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v>86400</v>
       </c>
-      <c r="G11" s="198">
+      <c r="G11" s="197">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v>81700</v>
       </c>
-      <c r="H11" s="198">
+      <c r="H11" s="197">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v>77200</v>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="197" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="197" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="197" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="197" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="197" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6139,49 +6165,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+        <v>224</v>
+      </c>
+      <c r="C12" s="197">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="197">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="197">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="197">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="197">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="197" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="197" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="197" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="197" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="197" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6189,50 +6215,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="224" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="225">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="225">
         <f t="shared" si="3"/>
         <v>7.9760895748762106E-2</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="225">
         <f t="shared" si="3"/>
         <v>8.6184349293398022E-2</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="225">
         <f t="shared" si="3"/>
         <v>0.11044134384352738</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="225">
         <f t="shared" si="3"/>
         <v>9.8730085430616482E-2</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="225">
         <f t="shared" si="3"/>
         <v>8.6636754706508168E-2</v>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6240,50 +6266,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="224" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="226">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>196900</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="226">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>178800</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="226">
         <f t="shared" si="4"/>
         <v>204300</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="226">
         <f t="shared" si="4"/>
         <v>262000</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="226">
         <f t="shared" si="4"/>
         <v>213800</v>
       </c>
-      <c r="H14" s="227">
+      <c r="H14" s="226">
         <f t="shared" si="4"/>
         <v>187300</v>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="226" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="226" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="226" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="226" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="226" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6291,50 +6317,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="227" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="228">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.10123042505592841</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="228">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.12481644640234948</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="228">
         <f t="shared" si="5"/>
         <v>-0.2202290076335878</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="228">
         <f t="shared" si="5"/>
         <v>0.225444340505145</v>
       </c>
-      <c r="G15" s="229">
+      <c r="G15" s="228">
         <f t="shared" si="5"/>
         <v>0.1414842498665243</v>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="228" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="228" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="228" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="228" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="228" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="228" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6343,49 +6369,49 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+        <v>105</v>
+      </c>
+      <c r="C16" s="197">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-117900.00000000001</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-34500.000000000015</v>
       </c>
-      <c r="E16" s="198">
+      <c r="E16" s="197">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>91800</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="197">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>21199.999999999996</v>
       </c>
-      <c r="G16" s="198">
+      <c r="G16" s="197">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>11500</v>
       </c>
-      <c r="H16" s="198">
+      <c r="H16" s="197">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-43500</v>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="197" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="197" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="197" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="197" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="197" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6394,49 +6420,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+        <v>238</v>
+      </c>
+      <c r="C17" s="197">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>4900</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>12000</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="197">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>9600</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="197">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>7300</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="197">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>7400</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="197">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>900</v>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="197" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="197" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="197" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="197" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="197" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6445,7 +6471,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -6496,49 +6522,49 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+        <v>100</v>
+      </c>
+      <c r="C19" s="197">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>55400</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>56500</v>
       </c>
-      <c r="E19" s="198">
+      <c r="E19" s="197">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>64599.999999999993</v>
       </c>
-      <c r="F19" s="198">
+      <c r="F19" s="197">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>59300.000000000007</v>
       </c>
-      <c r="G19" s="198">
+      <c r="G19" s="197">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>57200</v>
       </c>
-      <c r="H19" s="198">
+      <c r="H19" s="197">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>38000</v>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="197" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="197" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="197" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="197" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="197" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6547,7 +6573,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6598,49 +6624,49 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+        <v>103</v>
+      </c>
+      <c r="C21" s="197">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>32400</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>27900</v>
       </c>
-      <c r="E21" s="198">
+      <c r="E21" s="197">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>35900</v>
       </c>
-      <c r="F21" s="198">
+      <c r="F21" s="197">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>49400</v>
       </c>
-      <c r="G21" s="198">
+      <c r="G21" s="197">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>33200</v>
       </c>
-      <c r="H21" s="198">
+      <c r="H21" s="197">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>37300</v>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="197" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="197" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="197" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="197" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="197" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6649,49 +6675,49 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+        <v>107</v>
+      </c>
+      <c r="C22" s="159">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>169000</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="159">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>138200</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="159">
         <f t="shared" si="8"/>
         <v>74200</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="159">
         <f t="shared" si="8"/>
         <v>223600</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="159">
         <f t="shared" si="8"/>
         <v>170900</v>
       </c>
-      <c r="H22" s="160">
+      <c r="H22" s="159">
         <f t="shared" si="8"/>
         <v>185700</v>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="159" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6700,7 +6726,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -6751,7 +6777,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -6801,50 +6827,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="230" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="229">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.22286541244573083</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="229">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>0.86253369272237201</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="229">
         <f t="shared" si="10"/>
         <v>-0.66815742397137745</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="229">
         <f t="shared" si="10"/>
         <v>0.30836746635459333</v>
       </c>
-      <c r="G25" s="230">
+      <c r="G25" s="229">
         <f t="shared" si="10"/>
         <v>-7.9698438341410882E-2</v>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="229" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="229" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="229" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="229" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="229" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="229" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6853,7 +6879,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6908,11 +6934,11 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="65" t="str">
+        <v>1436300</v>
+      </c>
+      <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
-        <v/>
+        <v>1318400</v>
       </c>
       <c r="E27" s="65">
         <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
@@ -6955,49 +6981,49 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="197" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="197" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="197" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="197" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="197" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="197" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="197" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="197" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="197" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="197" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7006,49 +7032,49 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="197" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="197" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="197" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="197" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="197" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="197" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="197" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="197" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="197" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="197" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7057,49 +7083,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="198" t="str">
+        <v>809300</v>
+      </c>
+      <c r="D30" s="197">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v/>
-      </c>
-      <c r="E30" s="198">
+        <v>683700</v>
+      </c>
+      <c r="E30" s="197">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>628000</v>
       </c>
-      <c r="F30" s="198">
+      <c r="F30" s="197">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>523000</v>
       </c>
-      <c r="G30" s="198">
+      <c r="G30" s="197">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>441900</v>
       </c>
-      <c r="H30" s="198">
+      <c r="H30" s="197">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v>476500</v>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="197" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="197" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="197" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="197" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="197" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7114,43 +7140,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="197" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198">
+      <c r="E31" s="197">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>20600</v>
       </c>
-      <c r="F31" s="198">
+      <c r="F31" s="197">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>17500</v>
       </c>
-      <c r="G31" s="198">
+      <c r="G31" s="197">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>17900</v>
       </c>
-      <c r="H31" s="198">
+      <c r="H31" s="197">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="197" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="197" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="197" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="197" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="197" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7165,43 +7191,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="197" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198">
+      <c r="E32" s="197">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>176500</v>
       </c>
-      <c r="F32" s="198">
+      <c r="F32" s="197">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>188600</v>
       </c>
-      <c r="G32" s="198">
+      <c r="G32" s="197">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>147300</v>
       </c>
-      <c r="H32" s="198">
+      <c r="H32" s="197">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="197" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="197" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="197" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="197" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="197" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7261,49 +7287,49 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="198" t="str">
+        <v>627000</v>
+      </c>
+      <c r="D34" s="197">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v/>
-      </c>
-      <c r="E34" s="198">
+        <v>634700</v>
+      </c>
+      <c r="E34" s="197">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>678800</v>
       </c>
-      <c r="F34" s="198">
+      <c r="F34" s="197">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>731100</v>
       </c>
-      <c r="G34" s="198">
+      <c r="G34" s="197">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>601500</v>
       </c>
-      <c r="H34" s="198">
+      <c r="H34" s="197">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v>607000</v>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="197" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="197" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="197" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="197" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="197" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7312,49 +7338,49 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="197">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E35" s="198" t="str">
+        <v>0</v>
+      </c>
+      <c r="E35" s="197">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F35" s="198" t="str">
+        <v>0</v>
+      </c>
+      <c r="F35" s="197">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G35" s="198" t="str">
+        <v>0</v>
+      </c>
+      <c r="G35" s="197">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H35" s="198" t="str">
+        <v>0</v>
+      </c>
+      <c r="H35" s="197">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I35" s="198" t="str">
+        <v>0</v>
+      </c>
+      <c r="I35" s="197" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="197" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="197" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="197" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="197" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7363,49 +7389,49 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="197" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="197" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="197" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="197" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="197" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="197" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="197" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="197" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="197" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="197" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7414,7 +7440,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7465,7 +7491,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
@@ -7516,7 +7542,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7534,7 +7560,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
@@ -7585,7 +7611,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -7636,7 +7662,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -7687,7 +7713,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -7738,7 +7764,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
@@ -7789,7 +7815,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -7840,7 +7866,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
@@ -7891,10 +7917,10 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+        <v>246</v>
+      </c>
+      <c r="C47" s="279" t="s">
+        <v>264</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7910,50 +7936,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="267" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="268">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="269" t="e">
+        <v>1.4939079579475041</v>
+      </c>
+      <c r="D48" s="268">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E48" s="269">
+        <v>1.700318567961165</v>
+      </c>
+      <c r="E48" s="268">
         <f t="shared" si="41"/>
         <v>1.813973063973064</v>
       </c>
-      <c r="F48" s="269">
+      <c r="F48" s="268">
         <f t="shared" si="41"/>
         <v>1.8916354357706722</v>
       </c>
-      <c r="G48" s="269">
+      <c r="G48" s="268">
         <f t="shared" si="41"/>
         <v>2.0754264903201074</v>
       </c>
-      <c r="H48" s="269">
+      <c r="H48" s="268">
         <f t="shared" si="41"/>
         <v>1.9952930318412552</v>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="268" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="268" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="268" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="268" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="268" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7962,7 +7988,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
@@ -8013,7 +8039,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
@@ -8064,7 +8090,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
@@ -8115,7 +8141,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8132,31 +8158,31 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155" t="e">
+        <v>248</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="155" t="str">
+        <v>0.43653832764742739</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E53" s="155" t="e">
+        <v>0.48141686893203883</v>
+      </c>
+      <c r="E53" s="155">
         <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="155" t="e">
+        <v>0.51943679216406491</v>
+      </c>
+      <c r="F53" s="155">
         <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="155" t="e">
+        <v>0.58296786540148315</v>
+      </c>
+      <c r="G53" s="155">
         <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" s="155" t="e">
+        <v>0.57648073605520411</v>
+      </c>
+      <c r="H53" s="155">
         <f t="shared" si="45"/>
-        <v>#VALUE!</v>
+        <v>0.56022150438394092</v>
       </c>
       <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
@@ -8182,7 +8208,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
@@ -8232,7 +8258,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8280,83 +8306,83 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="A56" s="16"/>
+      <c r="B56" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="269" t="str">
+        <f>IFERROR(IF(C13*C48*(1/C53)=C57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D56" s="269" t="str">
+        <f>IFERROR(IF(D13*D48*(1/D53)=D57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E56" s="269" t="str">
+        <f>IFERROR(IF(E13*E48*(1/E53)=E57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="F56" s="269" t="str">
+        <f>IFERROR(IF(F13*F48*(1/F53)=F57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="G56" s="269" t="str">
+        <f>IFERROR(IF(G13*G48*(1/G53)=G57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="H56" s="269" t="str">
+        <f>IFERROR(IF(H13*H48*(1/H53)=H57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="I56" s="269" t="str">
+        <f>IFERROR(IF(I13*I48*(1/I53)=I57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="J56" s="269" t="str">
+        <f>IFERROR(IF(J13*J48*(1/J53)=J57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="K56" s="269" t="str">
+        <f>IFERROR(IF(K13*K48*(1/K53)=K57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="L56" s="269" t="str">
+        <f>IFERROR(IF(L13*L48*(1/L53)=L57,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="M56" s="269" t="str">
+        <f>IFERROR(IF(M13*M48*(1/M53)=M57,"","Error"),"")</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="267" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="270" t="str">
-        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D57" s="270" t="str">
+      <c r="C57" s="270">
+        <f t="shared" ref="C57:M57" si="48">IF(C14="","",C14/(C34-C35))</f>
+        <v>0.31403508771929822</v>
+      </c>
+      <c r="D57" s="270">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E57" s="270" t="str">
+        <v>0.2817078934929888</v>
+      </c>
+      <c r="E57" s="270">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F57" s="270" t="str">
+        <v>0.30097230406599884</v>
+      </c>
+      <c r="F57" s="270">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G57" s="270" t="str">
+        <v>0.35836410887703463</v>
+      </c>
+      <c r="G57" s="270">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H57" s="270" t="str">
+        <v>0.35544472152950957</v>
+      </c>
+      <c r="H57" s="270">
         <f t="shared" si="48"/>
-        <v/>
+        <v>0.30856672158154858</v>
       </c>
       <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
@@ -8381,103 +8407,56 @@
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
+      <c r="B58" s="267" t="s">
         <v>251</v>
       </c>
-      <c r="C58" s="271" t="e">
-        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="271" t="e">
+      <c r="C58" s="270">
+        <f t="shared" ref="C58:M58" si="49">IF(C22="","",C22/(C34-C35))</f>
+        <v>0.26953748006379585</v>
+      </c>
+      <c r="D58" s="270">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E58" s="271" t="e">
+        <v>0.21774066488104615</v>
+      </c>
+      <c r="E58" s="270">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" s="271" t="e">
+        <v>0.10931054802592811</v>
+      </c>
+      <c r="F58" s="270">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" s="271" t="e">
+        <v>0.30584051429353032</v>
+      </c>
+      <c r="G58" s="270">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H58" s="271" t="e">
+        <v>0.28412302576891107</v>
+      </c>
+      <c r="H58" s="270">
         <f t="shared" si="49"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I58" s="271" t="str">
+        <v>0.30593080724876442</v>
+      </c>
+      <c r="I58" s="270" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="270" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="270" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="270" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="270" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271" t="e">
-        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="271" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E59" s="271" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" s="271" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" s="271" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H59" s="271" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M59" s="271" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
@@ -9040,9 +9019,7 @@
     <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="4"/>
-    </row>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9725,7 +9702,6 @@
     <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23">
@@ -9789,7 +9765,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -9804,34 +9780,34 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="204">
+      <c r="D3" s="203">
         <f>Inputs!C41</f>
-        <v>0</v>
+        <v>627000</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v/>
+        <v>Error!</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="281">
         <f>D3-D4</f>
-        <v>0</v>
+        <v>627000</v>
       </c>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="198">
+      <c r="D4" s="197">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
@@ -9846,10 +9822,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9865,16 +9841,16 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-809300</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>2.290749601275917</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -9898,7 +9874,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -9916,10 +9892,10 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="202">
+      <c r="D9" s="201">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -9935,38 +9911,38 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>32</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="196">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9977,7 +9953,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -9988,13 +9964,13 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="196">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10005,7 +9981,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10016,13 +9992,13 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="196">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10033,7 +10009,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10044,13 +10020,13 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="196">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10061,9 +10037,9 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+        <v>38</v>
+      </c>
+      <c r="I14" s="202">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10072,13 +10048,13 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="196">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10089,7 +10065,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10099,13 +10075,13 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="196">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10121,13 +10097,13 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="196">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10143,13 +10119,13 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="196">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10164,13 +10140,13 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="196">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10189,13 +10165,13 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="196">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10216,13 +10192,13 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="196">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10237,13 +10213,13 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="196">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10254,7 +10230,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10266,13 +10242,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10294,7 +10270,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10314,7 +10290,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10323,7 +10299,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10343,7 +10319,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10356,7 +10332,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10376,7 +10352,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10408,7 +10384,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="203">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10422,7 +10398,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10431,13 +10407,13 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="196">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10447,7 +10423,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10457,13 +10433,13 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="196">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10474,7 +10450,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10484,13 +10460,13 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="196">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10501,7 +10477,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10511,13 +10487,13 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="196">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10531,9 +10507,9 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+        <v>62</v>
+      </c>
+      <c r="I33" s="202">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10541,13 +10517,13 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="196">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10558,7 +10534,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -10568,13 +10544,13 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="196">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10594,13 +10570,13 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="196">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10621,13 +10597,13 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="196">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10648,13 +10624,13 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="196">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10669,13 +10645,13 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="196">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10690,13 +10666,13 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="196">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10711,13 +10687,13 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="196">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10732,13 +10708,13 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="196">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10749,11 +10725,11 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>809300</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10767,7 +10743,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10786,7 +10762,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10805,7 +10781,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10822,7 +10798,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10835,7 +10811,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10852,20 +10828,20 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="63" t="e">
+        <v>78</v>
+      </c>
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Issue!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -10882,11 +10858,11 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="280">
         <f>I49-I28</f>
-        <v>0</v>
+        <v>809300</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -10909,11 +10885,11 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
-        <v>0</v>
+        <v>809300</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -10925,14 +10901,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -10949,7 +10925,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -10979,7 +10955,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="124"/>
@@ -10990,14 +10966,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="296">
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11005,30 +10981,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="295">
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
+      <c r="E57" s="293"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="295">
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11045,11 +11021,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11059,7 +11035,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11080,7 +11056,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="116">
         <f>C11+C30</f>
@@ -11101,7 +11077,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11122,10 +11098,10 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+        <v>142</v>
+      </c>
+      <c r="C64" s="204"/>
+      <c r="D64" s="204"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11137,7 +11113,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11168,11 +11144,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11182,7 +11158,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11203,13 +11179,13 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
+        <v>143</v>
+      </c>
+      <c r="C69" s="204"/>
+      <c r="D69" s="204"/>
       <c r="E69" s="125">
         <f>I49-E64</f>
-        <v>0</v>
+        <v>809300</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11218,19 +11194,19 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>-809300</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
+        <v>-809300</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11240,21 +11216,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11264,66 +11240,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>2145700</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="205"/>
+      <c r="E74" s="234">
         <f>Inputs!E91</f>
         <v>2145700</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="205"/>
+      <c r="H74" s="234">
         <f>Inputs!F91</f>
         <v>2145700</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="205"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>1510800</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="157">
         <f>C75/$C$74</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="234">
         <f>Inputs!E92</f>
         <v>1510800</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="158">
         <f>E75/E74</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="234">
         <f>Inputs!F92</f>
         <v>1510800</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="158">
         <f>H75/$H$74</f>
         <v>0.70410588619098657</v>
       </c>
@@ -11331,50 +11307,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="159">
         <f>C74-C75</f>
         <v>634900</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="206"/>
+      <c r="E76" s="160">
         <f>E74-E75</f>
         <v>634900</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="206"/>
+      <c r="H76" s="160">
         <f>H74-H75</f>
         <v>634900</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="206"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>438000</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="157">
         <f>C77/$C$74</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="234">
         <f>Inputs!E93</f>
         <v>438000</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="158">
         <f>E77/E74</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="234">
         <f>Inputs!F93</f>
         <v>438000</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="158">
         <f>H77/$H$74</f>
         <v>0.20412918860977769</v>
       </c>
@@ -11382,60 +11358,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="157">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="178">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="158">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="234">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="158">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="252" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="253">
         <f>C76-C77-C78</f>
         <v>196900</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="254">
         <f>C79/C74</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="255">
         <f>E76-E77-E78</f>
         <v>196900</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="254">
         <f>E79/E74</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="256"/>
+      <c r="H79" s="255">
         <f>H76-H77-H78</f>
         <v>196900</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="254">
         <f>H79/H74</f>
         <v>9.1764925199235681E-2</v>
       </c>
@@ -11443,61 +11419,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="157">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="178">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="158">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="234">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="158">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="179" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>4900</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="157">
         <f>C81/$C$74</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="178">
         <f>E74*F81</f>
         <v>4900.0000000000009</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="158">
         <f>I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="234">
         <f>Inputs!F94</f>
         <v>4900.0000000000009</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="158">
         <f>H81/$H$74</f>
         <v>2.2836370415249105E-3</v>
       </c>
@@ -11505,29 +11481,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>23000</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="157">
         <f>C82/$C$74</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="234">
         <f>Inputs!E95</f>
         <v>23000</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="158">
         <f>E82/E74</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="234">
         <f>Inputs!F95</f>
         <v>23000</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="158">
         <f>H82/$H$74</f>
         <v>1.0719112643892435E-2</v>
       </c>
@@ -11535,29 +11511,29 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+        <v>119</v>
+      </c>
+      <c r="C83" s="161">
         <f>C79-C81-C82-C80</f>
         <v>169000</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="162">
         <f>C83/$C$74</f>
         <v>7.8762175513818339E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="163">
         <f>E79-E81-E82-E80</f>
         <v>169000</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="162">
         <f>E83/E74</f>
         <v>7.8762175513818339E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="163">
         <f>H79-H81-H82-H80</f>
         <v>169000</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="162">
         <f>H83/$H$74</f>
         <v>7.8762175513818339E-2</v>
       </c>
@@ -11565,51 +11541,51 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="207"/>
+      <c r="D84" s="157">
         <f>I84</f>
         <v>0.23</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="208"/>
+      <c r="F84" s="177">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="208"/>
+      <c r="I84" s="200">
         <f>Inputs!C16</f>
         <v>0.23</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="259" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="253">
         <f>C83*(1-I84)</f>
         <v>130130</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="254">
         <f>C85/$C$74</f>
         <v>6.0646875145640121E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="260">
         <f>E83*(1-F84)</f>
         <v>130130</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="254">
         <f>E85/E74</f>
         <v>6.0646875145640121E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="256"/>
+      <c r="H85" s="260">
         <f>H83*(1-I84)</f>
         <v>130130</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="254">
         <f>H85/$H$74</f>
         <v>6.0646875145640121E-2</v>
       </c>
@@ -11617,95 +11593,95 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+        <v>151</v>
+      </c>
+      <c r="C86" s="165">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.51420731741314341</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="205"/>
+      <c r="E86" s="166">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.51420731741314341</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="205"/>
+      <c r="H86" s="166">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.51420731741314341</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="205"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+        <v>193</v>
+      </c>
+      <c r="C87" s="257">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.853609363938753E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>7.8689982733285424E-2</v>
+      </c>
+      <c r="D87" s="205"/>
+      <c r="E87" s="258">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.853609363938753E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>7.8689982733285424E-2</v>
+      </c>
+      <c r="F87" s="205"/>
+      <c r="H87" s="258">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.853609363938753E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>7.8689982733285424E-2</v>
+      </c>
+      <c r="I87" s="205"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+        <v>192</v>
+      </c>
+      <c r="C88" s="167">
         <f>Inputs!C44</f>
-        <v>0.58985854464659881</v>
-      </c>
-      <c r="D88" s="165">
+        <v>0.65</v>
+      </c>
+      <c r="D88" s="164">
         <f>C88/C86</f>
-        <v>1.1471220355518064</v>
-      </c>
-      <c r="E88" s="169">
+        <v>1.2640815834165835</v>
+      </c>
+      <c r="E88" s="168">
         <f>Inputs!E98</f>
-        <v>0.58985854464659881</v>
-      </c>
-      <c r="F88" s="165">
+        <v>0.65</v>
+      </c>
+      <c r="F88" s="164">
         <f>E88/E86</f>
-        <v>1.1471220355518064</v>
-      </c>
-      <c r="H88" s="169">
+        <v>1.2640815834165835</v>
+      </c>
+      <c r="H88" s="168">
         <f>Inputs!F98</f>
-        <v>0.58985854464659881</v>
-      </c>
-      <c r="I88" s="165">
+        <v>0.65</v>
+      </c>
+      <c r="I88" s="164">
         <f>H88/H86</f>
-        <v>1.1471220355518064</v>
+        <v>1.2640815834165835</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+        <v>205</v>
+      </c>
+      <c r="C89" s="257">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0090483599901489E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>9.9470557972515042E-2</v>
+      </c>
+      <c r="D89" s="205"/>
+      <c r="E89" s="257">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0090483599901489E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>9.9470557972515042E-2</v>
+      </c>
+      <c r="F89" s="205"/>
+      <c r="H89" s="257">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0090483599901489E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>9.9470557972515042E-2</v>
+      </c>
+      <c r="I89" s="205"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11720,29 +11696,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="196" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92" s="296"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
-        <v>191</v>
-      </c>
-      <c r="I92" s="297"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11754,51 +11730,51 @@
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="235">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.229614085352736</v>
+        <v>96.297417201019542</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.229614085352736</v>
+        <v>96.297417201019542</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="180">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="266">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.42806788655601</v>
+        <v>133.91355380938401</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>116.42806788655601</v>
+        <v>133.91355380938401</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11817,114 +11793,114 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+        <v>198</v>
+      </c>
+      <c r="E96" s="181" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="223" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="181" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="123" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12107618.257388612</v>
-      </c>
-      <c r="D97" s="210"/>
+        <v>12116149.251188787</v>
+      </c>
+      <c r="D97" s="209"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.843125369970004</v>
-      </c>
-      <c r="F97" s="210"/>
+        <v>47.876835501660281</v>
+      </c>
+      <c r="F97" s="209"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.843125369970004</v>
+        <v>47.876835501660281</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>65.303083895660151</v>
+        <v>65.349096265062869</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
+      <c r="D98" s="209"/>
+      <c r="E98" s="209"/>
+      <c r="F98" s="209"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="211"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
+      <c r="D99" s="210"/>
       <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
+      <c r="F99" s="210"/>
       <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="212"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>12107618.257388612</v>
+        <v>12116149.251188787</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.666656564474501</v>
+        <v>40.69531017641124</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.843125369970004</v>
+        <v>47.876835501660281</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>47.843125369970004</v>
+        <v>47.876835501660281</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.843125369970004</v>
+        <v>47.876835501660281</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>65.303083895660151</v>
+        <v>65.349096265062869</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11934,58 +11910,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+        <v>198</v>
+      </c>
+      <c r="E102" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="223" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="123" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>14648989.438588157</v>
+        <v>16849014.769779507</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>49.202527685586745</v>
+        <v>56.5918979708702</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>57.885326688925581</v>
+        <v>66.578703495141411</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>57.885326688925581</v>
+        <v>66.578703495141411</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>57.885326688925581</v>
+        <v>66.578703495141411</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>79.010104709155883</v>
+        <v>90.876058501322504</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11995,58 +11971,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+        <v>198</v>
+      </c>
+      <c r="E105" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="223" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="123" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>13378303.847988386</v>
+        <v>14482582.010484146</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>44.934592125030619</v>
+        <v>48.643604073640716</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>52.864226029447792</v>
+        <v>57.227769498400846</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>52.864226029447792</v>
+        <v>57.227769498400846</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>52.864226029447792</v>
+        <v>57.227769498400846</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>72.156594302408024</v>
+        <v>78.112577383192686</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12055,7 +12031,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4A28CC-E795-4270-88DE-739F180B1D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC365A5-BFF8-4FDE-A8AF-6BCA09C154E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -844,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -962,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -983,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1826,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2351,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2824,167 +2824,167 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="185" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="189" t="s">
+      <c r="C5" s="188" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="187">
+      <c r="C6" s="186">
         <v>45639</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="188">
+      <c r="C7" s="187">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="189" t="s">
+      <c r="C8" s="188" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="263"/>
+      <c r="E8" s="262"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="191">
+      <c r="C10" s="190">
         <v>253069133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="214" t="s">
+      <c r="B12" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="215">
+      <c r="C12" s="214">
         <v>45382</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="214" t="s">
+      <c r="B13" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="216">
+      <c r="C13" s="215">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="214" t="s">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="215">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="214" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="174" t="s">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="218" t="s">
+      <c r="B16" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="219">
+      <c r="C16" s="218">
         <v>0.23</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="236" t="s">
+      <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="238" t="s">
+      <c r="C17" s="237" t="s">
         <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="236" t="s">
+      <c r="B18" s="235" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="238" t="s">
+      <c r="C18" s="237" t="s">
         <v>227</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="236" t="s">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="238" t="s">
+      <c r="C19" s="237" t="s">
         <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="237" t="s">
+      <c r="B20" s="236" t="s">
         <v>212</v>
       </c>
-      <c r="C20" s="238" t="s">
+      <c r="C20" s="237" t="s">
         <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="220" t="s">
+      <c r="B21" s="219" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="238" t="s">
+      <c r="C21" s="237" t="s">
         <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="222" t="s">
+      <c r="B22" s="221" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="239" t="s">
-        <v>240</v>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="114" t="s">
         <v>127</v>
       </c>
       <c r="C24" s="48">
@@ -3033,581 +3033,582 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>2145700</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>2241700</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>2370500</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>2372300</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>2165500</v>
       </c>
-      <c r="H25" s="148">
+      <c r="H25" s="147">
         <v>2161900</v>
       </c>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="149">
+      <c r="C26" s="148">
         <v>1510800</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>1608000</v>
       </c>
-      <c r="E26" s="149">
+      <c r="E26" s="148">
         <v>1701400</v>
       </c>
-      <c r="F26" s="149">
+      <c r="F26" s="148">
         <v>1645700</v>
       </c>
-      <c r="G26" s="149">
+      <c r="G26" s="148">
         <v>1501900</v>
       </c>
-      <c r="H26" s="149">
+      <c r="H26" s="148">
         <v>1525500</v>
       </c>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="149">
+      <c r="C27" s="148">
         <v>356300</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <v>371600</v>
       </c>
-      <c r="E27" s="149">
+      <c r="E27" s="148">
         <v>380500</v>
       </c>
-      <c r="F27" s="149">
+      <c r="F27" s="148">
         <v>378200</v>
       </c>
-      <c r="G27" s="149">
+      <c r="G27" s="148">
         <v>368100</v>
       </c>
-      <c r="H27" s="149">
+      <c r="H27" s="148">
         <v>371900</v>
       </c>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="149">
+      <c r="C28" s="148">
         <v>81700</v>
       </c>
-      <c r="D28" s="149">
+      <c r="D28" s="148">
         <v>83300</v>
       </c>
-      <c r="E28" s="149">
+      <c r="E28" s="148">
         <v>84300</v>
       </c>
-      <c r="F28" s="149">
+      <c r="F28" s="148">
         <v>86400</v>
       </c>
-      <c r="G28" s="149">
+      <c r="G28" s="148">
         <v>81700</v>
       </c>
-      <c r="H28" s="149">
+      <c r="H28" s="148">
         <v>77200</v>
       </c>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="149">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
         <v>4900</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="148">
         <v>12000</v>
       </c>
-      <c r="E29" s="149">
+      <c r="E29" s="148">
         <v>9600</v>
       </c>
-      <c r="F29" s="149">
+      <c r="F29" s="148">
         <v>7300</v>
       </c>
-      <c r="G29" s="149">
+      <c r="G29" s="148">
         <v>7400</v>
       </c>
-      <c r="H29" s="149">
+      <c r="H29" s="148">
         <v>900</v>
       </c>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="149">
-        <v>0</v>
-      </c>
-      <c r="D30" s="149">
-        <v>0</v>
-      </c>
-      <c r="E30" s="149">
-        <v>0</v>
-      </c>
-      <c r="F30" s="149">
-        <v>0</v>
-      </c>
-      <c r="G30" s="149">
-        <v>0</v>
-      </c>
-      <c r="H30" s="149">
-        <v>0</v>
-      </c>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
+      <c r="C30" s="148">
+        <v>0</v>
+      </c>
+      <c r="D30" s="148">
+        <v>0</v>
+      </c>
+      <c r="E30" s="148">
+        <v>0</v>
+      </c>
+      <c r="F30" s="148">
+        <v>0</v>
+      </c>
+      <c r="G30" s="148">
+        <v>0</v>
+      </c>
+      <c r="H30" s="148">
+        <v>0</v>
+      </c>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="149">
+      <c r="C31" s="148">
         <f>(-127.5-40.3+48.2+1.6+0.1)*1000</f>
         <v>-117900.00000000001</v>
       </c>
-      <c r="D31" s="149">
+      <c r="D31" s="148">
         <f>(-77.8-60+100.3+2.7+0.3)*1000</f>
         <v>-34500.000000000015</v>
       </c>
-      <c r="E31" s="149">
+      <c r="E31" s="148">
         <f>(139.3+63.6-109.2-1.9)*1000</f>
         <v>91800</v>
       </c>
-      <c r="F31" s="149">
+      <c r="F31" s="148">
         <f>(41.4+49.7-67.5-2.2-0.2)*1000</f>
         <v>21199.999999999996</v>
       </c>
-      <c r="G31" s="149">
+      <c r="G31" s="148">
         <v>11500</v>
       </c>
-      <c r="H31" s="149">
+      <c r="H31" s="148">
         <v>-43500</v>
       </c>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="149">
+      <c r="C32" s="148">
         <f>33200+21600+600</f>
         <v>55400</v>
       </c>
-      <c r="D32" s="149">
+      <c r="D32" s="148">
         <f>34700+21100+700</f>
         <v>56500</v>
       </c>
-      <c r="E32" s="149">
+      <c r="E32" s="148">
         <f>(41.4+22.4+0.8)*1000</f>
         <v>64599.999999999993</v>
       </c>
-      <c r="F32" s="149">
+      <c r="F32" s="148">
         <f>(36.6+21.8+0.9)*1000</f>
         <v>59300.000000000007</v>
       </c>
-      <c r="G32" s="149">
+      <c r="G32" s="148">
         <v>57200</v>
       </c>
-      <c r="H32" s="149">
+      <c r="H32" s="148">
         <v>38000</v>
       </c>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <v>32400</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>27900</v>
       </c>
-      <c r="E33" s="149">
+      <c r="E33" s="148">
         <v>35900</v>
       </c>
-      <c r="F33" s="149">
+      <c r="F33" s="148">
         <v>49400</v>
       </c>
-      <c r="G33" s="149">
+      <c r="G33" s="148">
         <v>33200</v>
       </c>
-      <c r="H33" s="149">
+      <c r="H33" s="148">
         <v>37300</v>
       </c>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="213"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148">
         <v>1142200</v>
       </c>
-      <c r="F34" s="149">
+      <c r="F34" s="148">
         <v>1080300</v>
       </c>
-      <c r="G34" s="149">
+      <c r="G34" s="148">
         <v>889800</v>
       </c>
-      <c r="H34" s="149">
+      <c r="H34" s="148">
         <v>929600</v>
       </c>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="213"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="213"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
         <f>669800+139500</f>
         <v>809300</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <f>517200+166500</f>
         <v>683700</v>
       </c>
-      <c r="E37" s="149">
+      <c r="E37" s="148">
         <v>628000</v>
       </c>
-      <c r="F37" s="149">
+      <c r="F37" s="148">
         <v>523000</v>
       </c>
-      <c r="G37" s="149">
+      <c r="G37" s="148">
         <v>441900</v>
       </c>
-      <c r="H37" s="149">
+      <c r="H37" s="148">
         <v>476500</v>
       </c>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="213"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="213"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148">
         <v>20600</v>
       </c>
-      <c r="F39" s="149">
+      <c r="F39" s="148">
         <v>17500</v>
       </c>
-      <c r="G39" s="149">
+      <c r="G39" s="148">
         <v>17900</v>
       </c>
-      <c r="H39" s="149">
-        <v>0</v>
-      </c>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="H39" s="148">
+        <v>0</v>
+      </c>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="213"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148">
         <v>176500</v>
       </c>
-      <c r="F40" s="149">
+      <c r="F40" s="148">
         <v>188600</v>
       </c>
-      <c r="G40" s="149">
+      <c r="G40" s="148">
         <v>147300</v>
       </c>
-      <c r="H40" s="149">
-        <v>0</v>
-      </c>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="H40" s="148">
+        <v>0</v>
+      </c>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="149">
+      <c r="C41" s="148">
         <v>627000</v>
       </c>
-      <c r="D41" s="149">
+      <c r="D41" s="148">
         <v>634700</v>
       </c>
-      <c r="E41" s="149">
+      <c r="E41" s="148">
         <v>678800</v>
       </c>
-      <c r="F41" s="149">
+      <c r="F41" s="148">
         <v>731100</v>
       </c>
-      <c r="G41" s="149">
+      <c r="G41" s="148">
         <v>601500</v>
       </c>
-      <c r="H41" s="149">
+      <c r="H41" s="148">
         <v>607000</v>
       </c>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
-      <c r="D42" s="149">
-        <v>0</v>
-      </c>
-      <c r="E42" s="149">
-        <v>0</v>
-      </c>
-      <c r="F42" s="149">
-        <v>0</v>
-      </c>
-      <c r="G42" s="149">
-        <v>0</v>
-      </c>
-      <c r="H42" s="149">
-        <v>0</v>
-      </c>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148">
+        <v>0</v>
+      </c>
+      <c r="D42" s="148">
+        <v>0</v>
+      </c>
+      <c r="E42" s="148">
+        <v>0</v>
+      </c>
+      <c r="F42" s="148">
+        <v>0</v>
+      </c>
+      <c r="G42" s="148">
+        <v>0</v>
+      </c>
+      <c r="H42" s="148">
+        <v>0</v>
+      </c>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="213"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="246">
+      <c r="C44" s="245">
         <f>0.48+0.17</f>
         <v>0.65</v>
       </c>
-      <c r="D44" s="246">
+      <c r="D44" s="245">
         <f>0.42+0.17</f>
         <v>0.59</v>
       </c>
-      <c r="E44" s="246">
+      <c r="E44" s="245">
         <f>0.51+0.17</f>
         <v>0.68</v>
       </c>
-      <c r="F44" s="246">
+      <c r="F44" s="245">
         <f>0.74+0.17</f>
         <v>0.91</v>
       </c>
-      <c r="G44" s="246">
+      <c r="G44" s="245">
         <f>0.36+0.17</f>
         <v>0.53</v>
       </c>
-      <c r="H44" s="246">
+      <c r="H44" s="245">
         <f>0.5+0.17</f>
         <v>0.67</v>
       </c>
-      <c r="I44" s="246"/>
-      <c r="J44" s="246"/>
-      <c r="K44" s="246"/>
-      <c r="L44" s="246"/>
-      <c r="M44" s="246"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9470557972515042E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>9.9752307840380569E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0288660313513652E-2</v>
-      </c>
-      <c r="E45" s="151">
+        <v>9.0544402501268495E-2</v>
+      </c>
+      <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10406150680201574</v>
-      </c>
-      <c r="F45" s="151">
+        <v>0.10435626050993657</v>
+      </c>
+      <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.13925878116152107</v>
-      </c>
-      <c r="G45" s="151">
+        <v>0.13965323097653279</v>
+      </c>
+      <c r="G45" s="150">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1106762654512263E-2</v>
-      </c>
-      <c r="H45" s="151">
+        <v>8.1336497162156449E-2</v>
+      </c>
+      <c r="H45" s="150">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10253119052551551</v>
-      </c>
-      <c r="I45" s="151" t="str">
+        <v>0.10282160962008458</v>
+      </c>
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="192" t="s">
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet- Error</v>
+      </c>
+      <c r="C47" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="192" t="s">
+      <c r="D47" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="111" t="s">
+      <c r="E47" s="110" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3619,7 +3620,7 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
@@ -3629,7 +3630,7 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
@@ -3640,7 +3641,7 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
@@ -3650,7 +3651,7 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
@@ -3660,7 +3661,7 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
@@ -3671,17 +3672,17 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
@@ -3692,7 +3693,7 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
@@ -3703,7 +3704,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="217" t="s">
+      <c r="E56" s="216" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3715,7 +3716,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="217" t="s">
+      <c r="E57" s="216" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3728,18 +3729,18 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="193">
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
@@ -3750,7 +3751,7 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
@@ -3761,7 +3762,7 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
@@ -3772,7 +3773,7 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
@@ -3783,17 +3784,17 @@
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
@@ -3803,7 +3804,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="217" t="s">
+      <c r="E65" s="216" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3815,7 +3816,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="217" t="s">
+      <c r="E66" s="216" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3828,7 +3829,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="217" t="s">
+      <c r="E67" s="216" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3841,7 +3842,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
@@ -3852,7 +3853,7 @@
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
@@ -3862,7 +3863,7 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
@@ -3873,17 +3874,17 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="242" t="s">
+      <c r="B72" s="241" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="243"/>
-      <c r="D72" s="244">
-        <v>0</v>
-      </c>
-      <c r="E72" s="245"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3904,16 +3905,16 @@
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
+      <c r="B76" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="119"/>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
@@ -3934,22 +3935,22 @@
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="213"/>
+        <v>263</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="C83" s="213"/>
+        <v>264</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3965,9 +3966,9 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="195">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
@@ -3975,15 +3976,15 @@
       <c r="B87" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C87" s="232" t="s">
-        <v>233</v>
-      </c>
-      <c r="D87" s="265">
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
+      <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
       <c r="C89" s="282">
@@ -3991,10 +3992,10 @@
         <v>45382</v>
       </c>
       <c r="D89" s="282"/>
-      <c r="E89" s="89" t="s">
+      <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="F89" s="89" t="s">
+      <c r="F89" s="88" t="s">
         <v>190</v>
       </c>
       <c r="H89" s="31"/>
@@ -4008,10 +4009,10 @@
         <v>96</v>
       </c>
       <c r="D90" s="283"/>
-      <c r="E90" s="231" t="s">
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="F90" s="251" t="s">
+      <c r="F90" s="250" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4023,72 +4024,72 @@
         <f>C25</f>
         <v>2145700</v>
       </c>
-      <c r="D91" s="205"/>
-      <c r="E91" s="247">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>2145700</v>
       </c>
-      <c r="F91" s="247">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>2145700</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
+      <c r="B92" s="103" t="s">
         <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>1510800</v>
       </c>
-      <c r="D92" s="157">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="E92" s="248">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>1510800</v>
       </c>
-      <c r="F92" s="248">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>1510800</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
+      <c r="B93" s="103" t="s">
         <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>438000</v>
       </c>
-      <c r="D93" s="157">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="E93" s="248">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>438000</v>
       </c>
-      <c r="F93" s="248">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>438000</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>238</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>4900</v>
       </c>
-      <c r="D94" s="157">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="E94" s="249"/>
-      <c r="F94" s="248">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>4900.0000000000009</v>
       </c>
@@ -4101,15 +4102,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>23000</v>
       </c>
-      <c r="D95" s="157">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="E95" s="248">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>23000</v>
       </c>
-      <c r="F95" s="248">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>23000</v>
       </c>
@@ -4122,12 +4123,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="157">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="249"/>
-      <c r="F96" s="248">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4140,30 +4141,30 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="157">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="249"/>
-      <c r="F97" s="248">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
+      <c r="B98" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="C98" s="233">
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.65</v>
       </c>
-      <c r="D98" s="262"/>
-      <c r="E98" s="250">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.65</v>
       </c>
-      <c r="F98" s="250">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.65</v>
       </c>
@@ -4175,33 +4176,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98 D34:M43">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4244,7 +4245,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4260,13 +4261,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4277,11 +4278,11 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0303.HK : VTECH</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
@@ -4292,14 +4293,14 @@
         <v>0303.HK</v>
       </c>
       <c r="D3" s="289"/>
-      <c r="E3" s="87"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>50.8</v>
-      </c>
-      <c r="H3" s="133" t="s">
+      <c r="G3" s="130">
+        <v>50.65</v>
+      </c>
+      <c r="H3" s="132" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4312,7 +4313,7 @@
         <v>VTECH</v>
       </c>
       <c r="D4" s="291"/>
-      <c r="E4" s="87"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4338,21 +4339,21 @@
       </c>
       <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>12855.911956399999</v>
+        <v>12817.951586449999</v>
       </c>
       <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="183">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="184">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4371,23 +4372,23 @@
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="185" t="str">
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="185" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0007</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>7.7740066846211748</v>
+      <c r="G7" s="131">
+        <v>7.7730067571004229</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4396,10 +4397,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="141" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4407,48 +4408,48 @@
       <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="109" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="171">
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="172">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="170">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="170">
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="109" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4456,162 +4457,162 @@
       <c r="B15" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="170">
+      <c r="C15" s="169">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="109" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="171">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="261" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="109" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="173">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="174"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="134" t="s">
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="271" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="272">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>0.31403508771929822</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="170">
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="273" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="274">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.43653832764742739</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="275" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="276">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>1.4939079579475041</v>
       </c>
-      <c r="F22" s="141" t="s">
+      <c r="F22" s="140" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="277" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="278">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
+      <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="G23" s="175">
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.6374876755606778</v>
+        <v>2.6300381055188971</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="169">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="264">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.708097845051446</v>
+        <v>12.67220388965149</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="169">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
+      <c r="F25" s="138" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="169">
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>1.2640815834165835</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="169">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="F26" s="139" t="s">
         <v>178</v>
       </c>
-      <c r="G26" s="176">
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.9470557972515042E-2</v>
+        <v>9.9752307840380569E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
         <v>157</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -4622,30 +4623,30 @@
         <v>221</v>
       </c>
       <c r="G28" s="284" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="129">
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.69531017641124</v>
-      </c>
-      <c r="D29" s="128">
+        <v>40.732131955872077</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>75.151460704822298</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>75.219458970475941</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.876835501660281</v>
+        <v>47.920155242202448</v>
       </c>
       <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.349096265062869</v>
+        <v>65.408225191718216</v>
       </c>
       <c r="H29" s="285"/>
     </row>
@@ -4659,17 +4660,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="194" t="s">
+      <c r="B32" s="193" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="220"/>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="241" t="str">
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4679,7 +4680,7 @@
       <c r="B34" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C34" s="221" t="e">
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4687,17 +4688,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="194" t="s">
+      <c r="B35" s="193" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="220"/>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="241" t="str">
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4707,24 +4708,24 @@
       <c r="B37" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="241" t="str">
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="194" t="s">
+      <c r="B38" s="193" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="220"/>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C39" s="241" t="str">
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4734,7 +4735,7 @@
       <c r="B40" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C40" s="241" t="str">
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4753,10 +4754,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="222" t="s">
+      <c r="B43" s="221" t="s">
         <v>214</v>
       </c>
-      <c r="C43" s="240" t="str">
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5706,12 +5707,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N929"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C53" sqref="C53:H53"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5737,59 +5738,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="146" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="199">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45382</v>
       </c>
-      <c r="E3" s="145" t="s">
+      <c r="E3" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="84">
         <f>H14</f>
         <v>187300</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>196900</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5797,18 +5798,18 @@
         <f>Dashboard!G6</f>
         <v>USD</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="93">
+      <c r="F4" s="92">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>8.3655264529756135E-3</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="114" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="48">
@@ -5858,928 +5859,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="198">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>2145700</v>
       </c>
-      <c r="D6" s="198">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>2241700</v>
       </c>
-      <c r="E6" s="198">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>2370500</v>
       </c>
-      <c r="F6" s="198">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>2372300</v>
       </c>
-      <c r="G6" s="198">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>2165500</v>
       </c>
-      <c r="H6" s="198">
+      <c r="H6" s="197">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v>2161900</v>
       </c>
-      <c r="I6" s="198" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="198" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="198" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="198" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="198" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-4.2824642012758152E-2</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>-5.4334528580468278E-2</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>-7.5875732411578856E-4</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>9.5497575617640162E-2</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <f t="shared" si="1"/>
         <v>1.6652019057310508E-3</v>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="197">
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>1510800</v>
       </c>
-      <c r="D8" s="197">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1608000</v>
       </c>
-      <c r="E8" s="197">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>1701400</v>
       </c>
-      <c r="F8" s="197">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>1645700</v>
       </c>
-      <c r="G8" s="197">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>1501900</v>
       </c>
-      <c r="H8" s="197">
+      <c r="H8" s="196">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v>1525500</v>
       </c>
-      <c r="I8" s="197" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="197" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="197" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="197" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="197" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="150">
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>634900</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>633700</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>669100</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>726600</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>663600</v>
       </c>
-      <c r="H9" s="150">
+      <c r="H9" s="149">
         <f t="shared" si="2"/>
         <v>636400</v>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="197">
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>356300</v>
       </c>
-      <c r="D10" s="197">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>371600</v>
       </c>
-      <c r="E10" s="197">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>380500</v>
       </c>
-      <c r="F10" s="197">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>378200</v>
       </c>
-      <c r="G10" s="197">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>368100</v>
       </c>
-      <c r="H10" s="197">
+      <c r="H10" s="196">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v>371900</v>
       </c>
-      <c r="I10" s="197" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="197" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="197" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="197" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="197" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="197">
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>81700</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>83300</v>
       </c>
-      <c r="E11" s="197">
+      <c r="E11" s="196">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v>84300</v>
       </c>
-      <c r="F11" s="197">
+      <c r="F11" s="196">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v>86400</v>
       </c>
-      <c r="G11" s="197">
+      <c r="G11" s="196">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v>81700</v>
       </c>
-      <c r="H11" s="197">
+      <c r="H11" s="196">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v>77200</v>
       </c>
-      <c r="I11" s="197" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="197" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="197" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="197" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="197" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="197">
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="197">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="F12" s="197">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="197">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="197">
+      <c r="H12" s="196">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="197" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="197" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="197" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="197" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="197" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="224" t="s">
+      <c r="B13" s="223" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="225">
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="D13" s="225">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>7.9760895748762106E-2</v>
       </c>
-      <c r="E13" s="225">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>8.6184349293398022E-2</v>
       </c>
-      <c r="F13" s="225">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.11044134384352738</v>
       </c>
-      <c r="G13" s="225">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>9.8730085430616482E-2</v>
       </c>
-      <c r="H13" s="225">
+      <c r="H13" s="224">
         <f t="shared" si="3"/>
         <v>8.6636754706508168E-2</v>
       </c>
-      <c r="I13" s="225" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="225" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="225" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="225" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="225" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="224" t="s">
+      <c r="B14" s="223" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="226">
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>196900</v>
       </c>
-      <c r="D14" s="226">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>178800</v>
       </c>
-      <c r="E14" s="226">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>204300</v>
       </c>
-      <c r="F14" s="226">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>262000</v>
       </c>
-      <c r="G14" s="226">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>213800</v>
       </c>
-      <c r="H14" s="226">
+      <c r="H14" s="225">
         <f t="shared" si="4"/>
         <v>187300</v>
       </c>
-      <c r="I14" s="226" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="226" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="226" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="226" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="226" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="227" t="s">
+      <c r="B15" s="226" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="228">
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.10123042505592841</v>
       </c>
-      <c r="D15" s="228">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.12481644640234948</v>
       </c>
-      <c r="E15" s="228">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>-0.2202290076335878</v>
       </c>
-      <c r="F15" s="228">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>0.225444340505145</v>
       </c>
-      <c r="G15" s="228">
+      <c r="G15" s="227">
         <f t="shared" si="5"/>
         <v>0.1414842498665243</v>
       </c>
-      <c r="H15" s="228" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="228" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="228" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="228" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="228" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="228" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="197">
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-117900.00000000001</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-34500.000000000015</v>
       </c>
-      <c r="E16" s="197">
+      <c r="E16" s="196">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v>91800</v>
       </c>
-      <c r="F16" s="197">
+      <c r="F16" s="196">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v>21199.999999999996</v>
       </c>
-      <c r="G16" s="197">
+      <c r="G16" s="196">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v>11500</v>
       </c>
-      <c r="H16" s="197">
+      <c r="H16" s="196">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v>-43500</v>
       </c>
-      <c r="I16" s="197" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="197" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="197" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="197" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="197" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="197">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>4900</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>12000</v>
       </c>
-      <c r="E17" s="197">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>9600</v>
       </c>
-      <c r="F17" s="197">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>7300</v>
       </c>
-      <c r="G17" s="197">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>7400</v>
       </c>
-      <c r="H17" s="197">
+      <c r="H17" s="196">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v>900</v>
       </c>
-      <c r="I17" s="197" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="197" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="197" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="197" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="197" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="151">
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>2.5819080020506129E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>2.5204086184592051E-2</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="150">
         <f t="shared" si="6"/>
         <v>2.7251634676228639E-2</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="150">
         <f t="shared" si="6"/>
         <v>2.4996838511149519E-2</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="150">
         <f t="shared" si="6"/>
         <v>2.6414223043177094E-2</v>
       </c>
-      <c r="H18" s="151">
+      <c r="H18" s="150">
         <f t="shared" si="6"/>
         <v>1.7577131227161293E-2</v>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="197">
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>55400</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>56500</v>
       </c>
-      <c r="E19" s="197">
+      <c r="E19" s="196">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>64599.999999999993</v>
       </c>
-      <c r="F19" s="197">
+      <c r="F19" s="196">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>59300.000000000007</v>
       </c>
-      <c r="G19" s="197">
+      <c r="G19" s="196">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>57200</v>
       </c>
-      <c r="H19" s="197">
+      <c r="H19" s="196">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v>38000</v>
       </c>
-      <c r="I19" s="197" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="197" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="197" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="197" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="197" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="96" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="151">
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>1.5099967376613692E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>1.2445911584957845E-2</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>1.5144484286015608E-2</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>2.0823673228512415E-2</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>1.5331332255830062E-2</v>
       </c>
-      <c r="H20" s="151">
+      <c r="H20" s="150">
         <f t="shared" si="7"/>
         <v>1.7253341967713585E-2</v>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="197">
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>32400</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>27900</v>
       </c>
-      <c r="E21" s="197">
+      <c r="E21" s="196">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v>35900</v>
       </c>
-      <c r="F21" s="197">
+      <c r="F21" s="196">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v>49400</v>
       </c>
-      <c r="G21" s="197">
+      <c r="G21" s="196">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v>33200</v>
       </c>
-      <c r="H21" s="197">
+      <c r="H21" s="196">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v>37300</v>
       </c>
-      <c r="I21" s="197" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="197" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="197" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="197" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="197" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="159">
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>169000</v>
       </c>
-      <c r="D22" s="159">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>138200</v>
       </c>
-      <c r="E22" s="159">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>74200</v>
       </c>
-      <c r="F22" s="159">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>223600</v>
       </c>
-      <c r="G22" s="159">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>170900</v>
       </c>
-      <c r="H22" s="159">
+      <c r="H22" s="158">
         <f t="shared" si="8"/>
         <v>185700</v>
       </c>
-      <c r="I22" s="159" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="159" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="159" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="159" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="159" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="152">
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>6.0646875145640121E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>4.7470223491100506E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>2.4102088167053365E-2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>7.2575981115373264E-2</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>6.0767951974139922E-2</v>
       </c>
-      <c r="H23" s="152">
+      <c r="H23" s="151">
         <f t="shared" si="9"/>
         <v>6.6140432027383317E-2</v>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="153">
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>130130</v>
       </c>
@@ -6823,62 +6824,62 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="230" t="s">
+      <c r="B25" s="229" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="229">
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.22286541244573083</v>
       </c>
-      <c r="D25" s="229">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>0.86253369272237201</v>
       </c>
-      <c r="E25" s="229">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>-0.66815742397137745</v>
       </c>
-      <c r="F25" s="229">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>0.30836746635459333</v>
       </c>
-      <c r="G25" s="229">
+      <c r="G25" s="228">
         <f t="shared" si="10"/>
         <v>-7.9698438341410882E-2</v>
       </c>
-      <c r="H25" s="229" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="229" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="229" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="229" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="229" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="229" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
+      <c r="B26" s="113" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="48">
@@ -6925,11 +6926,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41729</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6976,266 +6977,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="93" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="197" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="197" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="197" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="197" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="197" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="197" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="197" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="197" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="197" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="197" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="93" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="197" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="197" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="197" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="197" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="197" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="197" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="197" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="197" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="197" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="197" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>260</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>809300</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>683700</v>
       </c>
-      <c r="E30" s="197">
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>628000</v>
       </c>
-      <c r="F30" s="197">
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>523000</v>
       </c>
-      <c r="G30" s="197">
+      <c r="G30" s="196">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>441900</v>
       </c>
-      <c r="H30" s="197">
+      <c r="H30" s="196">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v>476500</v>
       </c>
-      <c r="I30" s="197" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="197" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="197" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="197" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="197" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="197">
+      <c r="E31" s="196">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>20600</v>
       </c>
-      <c r="F31" s="197">
+      <c r="F31" s="196">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>17500</v>
       </c>
-      <c r="G31" s="197">
+      <c r="G31" s="196">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>17900</v>
       </c>
-      <c r="H31" s="197">
+      <c r="H31" s="196">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="197" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="197" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="197" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="197" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="197" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="197">
+      <c r="E32" s="196">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>176500</v>
       </c>
-      <c r="F32" s="197">
+      <c r="F32" s="196">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>188600</v>
       </c>
-      <c r="G32" s="197">
+      <c r="G32" s="196">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>147300</v>
       </c>
-      <c r="H32" s="197">
+      <c r="H32" s="196">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="197" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="197" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="197" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="197" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="197" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7282,169 +7283,169 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="93" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>627000</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>634700</v>
       </c>
-      <c r="E34" s="197">
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>678800</v>
       </c>
-      <c r="F34" s="197">
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>731100</v>
       </c>
-      <c r="G34" s="197">
+      <c r="G34" s="196">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>601500</v>
       </c>
-      <c r="H34" s="197">
+      <c r="H34" s="196">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v>607000</v>
       </c>
-      <c r="I34" s="197" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="197" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="197" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="197" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="197" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="93" t="s">
         <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="197">
+      <c r="E35" s="196">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="197">
+      <c r="F35" s="196">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v>0</v>
       </c>
-      <c r="G35" s="197">
+      <c r="G35" s="196">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="197">
+      <c r="H35" s="196">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v>0</v>
       </c>
-      <c r="I35" s="197" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="197" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="197" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="197" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="197" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="93" t="s">
         <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="197" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="197" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="197" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="197" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="197" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="197" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="197" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="197" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="197" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="93" t="s">
         <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
+        <v>1436300</v>
       </c>
       <c r="D37" s="65" t="str">
         <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
@@ -7486,63 +7487,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="154" t="e">
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="154" t="e">
+        <v>0.13708835201559563</v>
+      </c>
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7555,372 +7556,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="155">
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.7173127537136994</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.71773887365534694</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.69371496016524048</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.69355806972985456</v>
       </c>
-      <c r="H40" s="155">
+      <c r="H40" s="154">
         <f t="shared" si="34"/>
         <v>0.70562930755354092</v>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="152">
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.20292635053753846</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.19607677705125501</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.19584369599123214</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>0.20771184483952898</v>
       </c>
-      <c r="H41" s="152">
+      <c r="H41" s="151">
         <f t="shared" si="35"/>
         <v>0.20773393773995097</v>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="152">
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>3.8726007171482807E-2</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>8.9364751506976342E-3</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>5.3105518356037868E-3</v>
       </c>
-      <c r="H42" s="152">
+      <c r="H42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="152">
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>5.3530802515947716E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>4.0497785277367644E-3</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>3.07718248113645E-3</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>3.417224659432002E-3</v>
       </c>
-      <c r="H43" s="152">
+      <c r="H43" s="151">
         <f t="shared" si="37"/>
         <v>4.1630047643276746E-4</v>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="152">
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="152">
+      <c r="H44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="C45" s="152">
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>1.2758174599634206E-2</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>1.2107150390213033E-2</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>4.1731652826371059E-3</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>1.1082890787347033E-2</v>
       </c>
-      <c r="H45" s="152">
+      <c r="H45" s="151">
         <f t="shared" si="39"/>
         <v>3.2378925944770805E-4</v>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="152">
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>7.8762175513818339E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>6.1649640897533123E-2</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>3.1301413203965407E-2</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>9.4254520929056188E-2</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>7.8919418148233667E-2</v>
       </c>
-      <c r="H46" s="152">
+      <c r="H46" s="151">
         <f t="shared" si="40"/>
         <v>8.5896664970627687E-2</v>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="279" t="s">
-        <v>264</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7932,216 +7933,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="267" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="268">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>1.4939079579475041</v>
       </c>
-      <c r="D48" s="268">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>1.700318567961165</v>
       </c>
-      <c r="E48" s="268">
+      <c r="E48" s="267">
         <f t="shared" si="41"/>
         <v>1.813973063973064</v>
       </c>
-      <c r="F48" s="268">
+      <c r="F48" s="267">
         <f t="shared" si="41"/>
         <v>1.8916354357706722</v>
       </c>
-      <c r="G48" s="268">
+      <c r="G48" s="267">
         <f t="shared" si="41"/>
         <v>2.0754264903201074</v>
       </c>
-      <c r="H48" s="268">
+      <c r="H48" s="267">
         <f t="shared" si="41"/>
         <v>1.9952930318412552</v>
       </c>
-      <c r="I48" s="268" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="268" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="268" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="268" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="268" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>1.2281250000000001</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>0.26785714285714296</v>
       </c>
-      <c r="E51" s="152">
+      <c r="E51" s="151">
         <f t="shared" si="44"/>
         <v>-51</v>
       </c>
-      <c r="F51" s="152">
+      <c r="F51" s="151">
         <f t="shared" si="44"/>
         <v>0.1025145067698259</v>
       </c>
-      <c r="G51" s="152">
+      <c r="G51" s="151">
         <f t="shared" si="44"/>
         <v>3.1944444444444446</v>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>247</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8157,306 +8158,353 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.43653832764742739</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.48141686893203883</v>
       </c>
-      <c r="E53" s="155">
+      <c r="E53" s="154">
         <f t="shared" si="45"/>
         <v>0.51943679216406491</v>
       </c>
-      <c r="F53" s="155">
+      <c r="F53" s="154">
         <f t="shared" si="45"/>
         <v>0.58296786540148315</v>
       </c>
-      <c r="G53" s="155">
+      <c r="G53" s="154">
         <f t="shared" si="45"/>
         <v>0.57648073605520411</v>
       </c>
-      <c r="H53" s="155">
+      <c r="H53" s="154">
         <f t="shared" si="45"/>
         <v>0.56022150438394092</v>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
+      <c r="B54" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="156" t="str">
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156">
+      <c r="E54" s="155">
         <f t="shared" si="46"/>
         <v>0.37645865043125315</v>
       </c>
-      <c r="F54" s="156">
+      <c r="F54" s="155">
         <f t="shared" si="46"/>
         <v>1.0849102377486657</v>
       </c>
-      <c r="G54" s="156">
+      <c r="G54" s="155">
         <f t="shared" si="46"/>
         <v>1.0345036319612591</v>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v>-</v>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="152">
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>2.8994082840236687E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>8.6830680173661356E-2</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>0.1293800539083558</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>3.2647584973166367E-2</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>4.3300175541252192E-2</v>
       </c>
-      <c r="H55" s="152">
+      <c r="H55" s="151">
         <f t="shared" si="47"/>
         <v>4.8465266558966073E-3</v>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="16"/>
-      <c r="B56" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C56" s="269" t="str">
-        <f>IFERROR(IF(C13*C48*(1/C53)=C57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D56" s="269" t="str">
-        <f>IFERROR(IF(D13*D48*(1/D53)=D57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E56" s="269" t="str">
-        <f>IFERROR(IF(E13*E48*(1/E53)=E57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="F56" s="269" t="str">
-        <f>IFERROR(IF(F13*F48*(1/F53)=F57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="G56" s="269" t="str">
-        <f>IFERROR(IF(G13*G48*(1/G53)=G57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="H56" s="269" t="str">
-        <f>IFERROR(IF(H13*H48*(1/H53)=H57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="I56" s="269" t="str">
-        <f>IFERROR(IF(I13*I48*(1/I53)=I57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="J56" s="269" t="str">
-        <f>IFERROR(IF(J13*J48*(1/J53)=J57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="K56" s="269" t="str">
-        <f>IFERROR(IF(K13*K48*(1/K53)=K57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="L56" s="269" t="str">
-        <f>IFERROR(IF(L13*L48*(1/L53)=L57,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="M56" s="269" t="str">
-        <f>IFERROR(IF(M13*M48*(1/M53)=M57,"","Error"),"")</f>
+      <c r="A56" s="4"/>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="151">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="151">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="267" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270">
-        <f t="shared" ref="C57:M57" si="48">IF(C14="","",C14/(C34-C35))</f>
-        <v>0.31403508771929822</v>
-      </c>
-      <c r="D57" s="270">
+      <c r="A57" s="16"/>
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
-        <v>0.2817078934929888</v>
-      </c>
-      <c r="E57" s="270">
+        <v/>
+      </c>
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
-        <v>0.30097230406599884</v>
-      </c>
-      <c r="F57" s="270">
+        <v/>
+      </c>
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
-        <v>0.35836410887703463</v>
-      </c>
-      <c r="G57" s="270">
+        <v/>
+      </c>
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
-        <v>0.35544472152950957</v>
-      </c>
-      <c r="H57" s="270">
+        <v/>
+      </c>
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
-        <v>0.30856672158154858</v>
-      </c>
-      <c r="I57" s="270" t="str">
+        <v/>
+      </c>
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="267" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="270">
-        <f t="shared" ref="C58:M58" si="49">IF(C22="","",C22/(C34-C35))</f>
-        <v>0.26953748006379585</v>
-      </c>
-      <c r="D58" s="270">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>0.31403508771929822</v>
+      </c>
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
-        <v>0.21774066488104615</v>
-      </c>
-      <c r="E58" s="270">
+        <v>0.2817078934929888</v>
+      </c>
+      <c r="E58" s="269">
         <f t="shared" si="49"/>
-        <v>0.10931054802592811</v>
-      </c>
-      <c r="F58" s="270">
+        <v>0.30097230406599884</v>
+      </c>
+      <c r="F58" s="269">
         <f t="shared" si="49"/>
-        <v>0.30584051429353032</v>
-      </c>
-      <c r="G58" s="270">
+        <v>0.35836410887703463</v>
+      </c>
+      <c r="G58" s="269">
         <f t="shared" si="49"/>
-        <v>0.28412302576891107</v>
-      </c>
-      <c r="H58" s="270">
+        <v>0.35544472152950957</v>
+      </c>
+      <c r="H58" s="269">
         <f t="shared" si="49"/>
-        <v>0.30593080724876442</v>
-      </c>
-      <c r="I58" s="270" t="str">
+        <v>0.30856672158154858</v>
+      </c>
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="270" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="270" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="270" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="270" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>0.26953748006379585</v>
+      </c>
+      <c r="D59" s="269">
+        <f t="shared" si="50"/>
+        <v>0.21774066488104615</v>
+      </c>
+      <c r="E59" s="269">
+        <f t="shared" si="50"/>
+        <v>0.10931054802592811</v>
+      </c>
+      <c r="F59" s="269">
+        <f t="shared" si="50"/>
+        <v>0.30584051429353032</v>
+      </c>
+      <c r="G59" s="269">
+        <f t="shared" si="50"/>
+        <v>0.28412302576891107</v>
+      </c>
+      <c r="H59" s="269">
+        <f t="shared" si="50"/>
+        <v>0.30593080724876442</v>
+      </c>
+      <c r="I59" s="269" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="269" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="269" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="269" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="269" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
@@ -9019,7 +9067,9 @@
     <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="4"/>
+    </row>
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9702,6 +9752,7 @@
     <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23">
@@ -9729,7 +9780,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9747,7 +9798,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9769,11 +9820,11 @@
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
@@ -9782,21 +9833,21 @@
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="203">
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>627000</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
-        <v>Error!</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+        <v/>
+      </c>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="281">
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>627000</v>
       </c>
@@ -9806,21 +9857,21 @@
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="197">
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
@@ -9838,7 +9889,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in USD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>-809300</v>
@@ -9847,8 +9898,8 @@
         <f>1-D6/D3</f>
         <v>2.290749601275917</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
@@ -9856,7 +9907,7 @@
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9864,7 +9915,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9880,13 +9931,13 @@
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9894,19 +9945,19 @@
       <c r="B9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="201">
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -9922,10 +9973,10 @@
       <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="87"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
@@ -9942,16 +9993,16 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="196">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
         <v>34</v>
       </c>
@@ -9959,7 +10010,7 @@
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -9970,16 +10021,16 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="196">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
         <v>35</v>
       </c>
@@ -9987,7 +10038,7 @@
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -9998,16 +10049,16 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="196">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
         <v>36</v>
       </c>
@@ -10015,7 +10066,7 @@
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -10026,24 +10077,24 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="196">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="202">
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -10054,24 +10105,24 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="196">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
@@ -10081,19 +10132,19 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="196">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
@@ -10103,19 +10154,19 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="196">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
@@ -10125,18 +10176,18 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="196">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
@@ -10146,15 +10197,15 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="196">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10171,15 +10222,15 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="196">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10198,16 +10249,16 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="196">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
@@ -10219,16 +10270,16 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="196">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
         <v>40</v>
       </c>
@@ -10238,13 +10289,13 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
@@ -10258,15 +10309,15 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
@@ -10280,15 +10331,15 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
         <v>51</v>
       </c>
@@ -10309,15 +10360,15 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
         <v>53</v>
       </c>
@@ -10342,15 +10393,15 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
         <v>55</v>
       </c>
@@ -10379,12 +10430,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="203">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10394,16 +10445,16 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
@@ -10413,15 +10464,15 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="196">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
         <v>57</v>
       </c>
@@ -10429,7 +10480,7 @@
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
@@ -10439,16 +10490,16 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="196">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
         <v>59</v>
       </c>
@@ -10456,7 +10507,7 @@
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
@@ -10466,16 +10517,16 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="196">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
         <v>61</v>
       </c>
@@ -10483,7 +10534,7 @@
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
@@ -10493,27 +10544,27 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="196">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="202">
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
@@ -10523,24 +10574,24 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="196">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="84">
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
@@ -10550,15 +10601,15 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="196">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10566,7 +10617,7 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
@@ -10576,15 +10627,15 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="196">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10592,8 +10643,8 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
@@ -10603,15 +10654,15 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="196">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10619,8 +10670,8 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
@@ -10630,18 +10681,18 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="196">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
@@ -10651,18 +10702,18 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="196">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
@@ -10672,18 +10723,18 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="196">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
@@ -10693,18 +10744,18 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="196">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
@@ -10714,16 +10765,16 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="196">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
         <v>64</v>
       </c>
@@ -10733,13 +10784,13 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
@@ -10753,12 +10804,12 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
@@ -10772,12 +10823,12 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
@@ -10791,12 +10842,12 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
         <v>76</v>
       </c>
@@ -10821,12 +10872,12 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
         <v>78</v>
       </c>
@@ -10843,11 +10894,11 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="81">
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10855,12 +10906,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="280">
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>809300</v>
       </c>
@@ -10871,19 +10922,19 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <f>Inputs!C41+Inputs!C37</f>
+        <v>1436300</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="88">
+        <v>0</v>
+      </c>
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
         <v>81</v>
       </c>
@@ -10891,13 +10942,13 @@
         <f>Inputs!C37</f>
         <v>809300</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
@@ -10910,15 +10961,15 @@
       <c r="B52" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="87"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
@@ -10927,7 +10978,7 @@
       <c r="B53" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="88">
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10935,22 +10986,22 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -10958,17 +11009,17 @@
         <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="87"/>
+      <c r="C56" s="86"/>
       <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
@@ -10983,14 +11034,14 @@
       <c r="B57" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="87"/>
+      <c r="C57" s="86"/>
       <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
       <c r="E57" s="293"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
         <v>87</v>
       </c>
@@ -10999,7 +11050,7 @@
       <c r="B58" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="87"/>
+      <c r="C58" s="86"/>
       <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
@@ -11007,16 +11058,16 @@
       <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11027,10 +11078,10 @@
       <c r="D60" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="87"/>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11049,30 +11100,30 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="116">
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11091,24 +11142,24 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
+      <c r="B64" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="204"/>
-      <c r="D64" s="204"/>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
@@ -11127,9 +11178,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11137,9 +11188,9 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11151,9 +11202,9 @@
         <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11162,7 +11213,7 @@
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>1436300</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
@@ -11172,24 +11223,24 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
+      <c r="B69" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="204"/>
-      <c r="D69" s="204"/>
-      <c r="E69" s="125">
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>809300</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
@@ -11198,24 +11249,24 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>-809300</v>
+        <v>627000</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-1.290749601275917</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
         <v>-809300</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
+      <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
       <c r="C72" s="282">
@@ -11262,44 +11313,44 @@
         <f>Data!C6</f>
         <v>2145700</v>
       </c>
-      <c r="D74" s="205"/>
-      <c r="E74" s="234">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>2145700</v>
       </c>
-      <c r="F74" s="205"/>
-      <c r="H74" s="234">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>2145700</v>
       </c>
-      <c r="I74" s="205"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
+      <c r="B75" s="103" t="s">
         <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>1510800</v>
       </c>
-      <c r="D75" s="157">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="E75" s="234">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>1510800</v>
       </c>
-      <c r="F75" s="158">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.70410588619098657</v>
       </c>
-      <c r="H75" s="234">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>1510800</v>
       </c>
-      <c r="I75" s="158">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.70410588619098657</v>
       </c>
@@ -11309,48 +11360,48 @@
       <c r="B76" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C76" s="159">
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>634900</v>
       </c>
-      <c r="D76" s="206"/>
-      <c r="E76" s="160">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>634900</v>
       </c>
-      <c r="F76" s="206"/>
-      <c r="H76" s="160">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>634900</v>
       </c>
-      <c r="I76" s="206"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
+      <c r="B77" s="103" t="s">
         <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>438000</v>
       </c>
-      <c r="D77" s="157">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="E77" s="234">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>438000</v>
       </c>
-      <c r="F77" s="158">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.20412918860977769</v>
       </c>
-      <c r="H77" s="234">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>438000</v>
       </c>
-      <c r="I77" s="158">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.20412918860977769</v>
       </c>
@@ -11364,54 +11415,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="157">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="178">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="158">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="234">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="158">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="252" t="s">
+      <c r="B79" s="251" t="s">
         <v>216</v>
       </c>
-      <c r="C79" s="253">
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>196900</v>
       </c>
-      <c r="D79" s="254">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="E79" s="255">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>196900</v>
       </c>
-      <c r="F79" s="254">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>9.1764925199235681E-2</v>
       </c>
-      <c r="G79" s="256"/>
-      <c r="H79" s="255">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>196900</v>
       </c>
-      <c r="I79" s="254">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>9.1764925199235681E-2</v>
       </c>
@@ -11425,55 +11476,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="157">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="178">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="158">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="234">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="158">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="179" t="s">
+      <c r="K80" s="178" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>238</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>4900</v>
       </c>
-      <c r="D81" s="157">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="E81" s="178">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>4900.0000000000009</v>
       </c>
-      <c r="F81" s="158">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
-      <c r="H81" s="234">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>4900.0000000000009</v>
       </c>
-      <c r="I81" s="158">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>2.2836370415249105E-3</v>
       </c>
@@ -11487,53 +11538,53 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>23000</v>
       </c>
-      <c r="D82" s="157">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="E82" s="234">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>23000</v>
       </c>
-      <c r="F82" s="158">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>1.0719112643892435E-2</v>
       </c>
-      <c r="H82" s="234">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>23000</v>
       </c>
-      <c r="I82" s="158">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>1.0719112643892435E-2</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
+      <c r="B83" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="C83" s="161">
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>169000</v>
       </c>
-      <c r="D83" s="162">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>7.8762175513818339E-2</v>
       </c>
-      <c r="E83" s="163">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>169000</v>
       </c>
-      <c r="F83" s="162">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>7.8762175513818339E-2</v>
       </c>
-      <c r="H83" s="163">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>169000</v>
       </c>
-      <c r="I83" s="162">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>7.8762175513818339E-2</v>
       </c>
@@ -11543,154 +11594,154 @@
       <c r="B84" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="207"/>
-      <c r="D84" s="157">
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.23</v>
       </c>
-      <c r="E84" s="208"/>
-      <c r="F84" s="177">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23</v>
       </c>
-      <c r="H84" s="208"/>
-      <c r="I84" s="200">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.23</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="259" t="s">
+      <c r="B85" s="258" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="253">
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>130130</v>
       </c>
-      <c r="D85" s="254">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>6.0646875145640121E-2</v>
       </c>
-      <c r="E85" s="260">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>130130</v>
       </c>
-      <c r="F85" s="254">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>6.0646875145640121E-2</v>
       </c>
-      <c r="G85" s="256"/>
-      <c r="H85" s="260">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>130130</v>
       </c>
-      <c r="I85" s="254">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>6.0646875145640121E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
+      <c r="B86" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="165">
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.51420731741314341</v>
       </c>
-      <c r="D86" s="205"/>
-      <c r="E86" s="166">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.51420731741314341</v>
       </c>
-      <c r="F86" s="205"/>
-      <c r="H86" s="166">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.51420731741314341</v>
       </c>
-      <c r="I86" s="205"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
+      <c r="B87" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="257">
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8689982733285424E-2</v>
-      </c>
-      <c r="D87" s="205"/>
-      <c r="E87" s="258">
+        <v>7.8912871723649469E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8689982733285424E-2</v>
-      </c>
-      <c r="F87" s="205"/>
-      <c r="H87" s="258">
+        <v>7.8912871723649469E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8689982733285424E-2</v>
-      </c>
-      <c r="I87" s="205"/>
+        <v>7.8912871723649469E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
+      <c r="B88" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="167">
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.65</v>
       </c>
-      <c r="D88" s="164">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>1.2640815834165835</v>
       </c>
-      <c r="E88" s="168">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.65</v>
       </c>
-      <c r="F88" s="164">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>1.2640815834165835</v>
       </c>
-      <c r="H88" s="168">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.65</v>
       </c>
-      <c r="I88" s="164">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>1.2640815834165835</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
+      <c r="B89" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="C89" s="257">
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9470557972515042E-2</v>
-      </c>
-      <c r="D89" s="205"/>
-      <c r="E89" s="257">
+        <v>9.9752307840380569E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9470557972515042E-2</v>
-      </c>
-      <c r="F89" s="205"/>
-      <c r="H89" s="257">
+        <v>9.9752307840380569E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9470557972515042E-2</v>
-      </c>
-      <c r="I89" s="205"/>
+        <v>9.9752307840380569E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
@@ -11703,7 +11754,7 @@
       <c r="B92" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C92" s="196" t="str">
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11714,7 +11765,7 @@
         <v>191</v>
       </c>
       <c r="F92" s="296"/>
-      <c r="G92" s="87"/>
+      <c r="G92" s="86"/>
       <c r="H92" s="296" t="s">
         <v>190</v>
       </c>
@@ -11726,27 +11777,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="235">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
+      <c r="E93" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="F93" s="143">
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.297417201019542</v>
-      </c>
-      <c r="H93" s="87" t="s">
+        <v>96.384548672519671</v>
+      </c>
+      <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="I93" s="143">
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.297417201019542</v>
+        <v>96.384548672519671</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11754,27 +11805,27 @@
       <c r="B94" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C94" s="180">
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="266">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
+      <c r="E94" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="F94" s="143">
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>133.91355380938401</v>
-      </c>
-      <c r="H94" s="87" t="s">
+        <v>134.06797828804261</v>
+      </c>
+      <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="I94" s="143">
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>133.91355380938401</v>
+        <v>134.06797828804261</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11784,29 +11835,29 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
+      <c r="D96" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="E96" s="181" t="str">
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="223" t="s">
+      <c r="F96" s="222" t="s">
         <v>221</v>
       </c>
-      <c r="H96" s="181" t="str">
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
+      <c r="I96" s="122" t="s">
         <v>110</v>
       </c>
       <c r="K96" s="24"/>
@@ -11815,23 +11866,23 @@
       <c r="B97" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C97" s="91">
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12116149.251188787</v>
-      </c>
-      <c r="D97" s="209"/>
-      <c r="E97" s="122">
+        <v>12127112.140369579</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.876835501660281</v>
-      </c>
-      <c r="F97" s="209"/>
-      <c r="H97" s="122">
+        <v>47.920155242202448</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.876835501660281</v>
-      </c>
-      <c r="I97" s="122">
+        <v>47.920155242202448</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>65.349096265062869</v>
+        <v>65.408225191718216</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11839,68 +11890,68 @@
       <c r="B98" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C98" s="91">
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="209"/>
-      <c r="E98" s="209"/>
-      <c r="F98" s="209"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="211"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="210"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="210"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="212"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>12116149.251188787</v>
-      </c>
-      <c r="D100" s="109">
+        <v>12127112.140369579</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.69531017641124</v>
-      </c>
-      <c r="E100" s="109">
+        <v>40.732131955872077</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.876835501660281</v>
-      </c>
-      <c r="F100" s="109">
+        <v>47.920155242202448</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>47.876835501660281</v>
-      </c>
-      <c r="H100" s="109">
+        <v>47.920155242202448</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.876835501660281</v>
-      </c>
-      <c r="I100" s="109">
+        <v>47.920155242202448</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>65.349096265062869</v>
+        <v>65.408225191718216</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11912,25 +11963,25 @@
       <c r="B102" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C102" s="126" t="str">
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
+      <c r="D102" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="E102" s="181" t="str">
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="223" t="s">
+      <c r="F102" s="222" t="s">
         <v>221</v>
       </c>
-      <c r="H102" s="181" t="str">
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
+      <c r="I102" s="122" t="s">
         <v>110</v>
       </c>
       <c r="K102" s="24"/>
@@ -11939,29 +11990,29 @@
       <c r="B103" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C103" s="91">
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>16849014.769779507</v>
-      </c>
-      <c r="D103" s="109">
+        <v>16868444.470864415</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>56.5918979708702</v>
-      </c>
-      <c r="E103" s="122">
+        <v>56.657157790297376</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>66.578703495141411</v>
-      </c>
-      <c r="F103" s="109">
+        <v>66.655479753291033</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>66.578703495141411</v>
-      </c>
-      <c r="H103" s="122">
+        <v>66.655479753291033</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>66.578703495141411</v>
-      </c>
-      <c r="I103" s="109">
+        <v>66.655479753291033</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>90.876058501322504</v>
+        <v>90.980853628906004</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11973,25 +12024,25 @@
       <c r="B105" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="126" t="str">
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
+      <c r="D105" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="E105" s="182" t="str">
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="223" t="s">
+      <c r="F105" s="222" t="s">
         <v>221</v>
       </c>
-      <c r="H105" s="182" t="str">
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
+      <c r="I105" s="122" t="s">
         <v>110</v>
       </c>
       <c r="K105" s="24"/>
@@ -12000,29 +12051,29 @@
       <c r="B106" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C106" s="91">
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14482582.010484146</v>
-      </c>
-      <c r="D106" s="109">
+        <v>14497778.305616999</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>48.643604073640716</v>
-      </c>
-      <c r="E106" s="122">
+        <v>48.694644873084727</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>57.227769498400846</v>
-      </c>
-      <c r="F106" s="109">
+        <v>57.287817497746744</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>57.227769498400846</v>
-      </c>
-      <c r="H106" s="122">
+        <v>57.287817497746744</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>57.227769498400846</v>
-      </c>
-      <c r="I106" s="122">
+        <v>57.287817497746744</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>78.112577383192686</v>
+        <v>78.194539410312103</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12033,13 +12084,14 @@
       <c r="B108" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C108" s="127" t="str">
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC365A5-BFF8-4FDE-A8AF-6BCA09C154E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7724641B-E94A-4D61-A6E9-6A895193C8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2860,7 +2874,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2869,7 +2883,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2885,7 +2899,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,6 +2942,9 @@
         <v>0.23</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3554,27 +3571,27 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9752307840380569E-2</v>
+        <v>9.9749825431469763E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0544402501268495E-2</v>
+        <v>9.0542149237795605E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10435626050993657</v>
+        <v>0.10435366352830683</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.13965323097653279</v>
+        <v>0.13964975560405768</v>
       </c>
       <c r="G45" s="150">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1336497162156449E-2</v>
+        <v>8.1334473044121502E-2</v>
       </c>
       <c r="H45" s="150">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10282160962008458</v>
+        <v>0.10281905082936113</v>
       </c>
       <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3987,11 +4004,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45382</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -4005,10 +4022,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4230,8 +4247,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4244,8 +4264,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4288,11 +4308,11 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0303.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4301,47 +4321,47 @@
         <v>50.65</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>VTECH</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>253069133</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
         <v>12817.951586449999</v>
       </c>
-      <c r="H5" s="286"/>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4364,11 +4384,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4388,7 +4408,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7730067571004229</v>
+        <v>7.7728133201599121</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4509,7 +4529,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>0.31403508771929822</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4521,20 +4541,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.43653832764742739</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>9.1764925199235681E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>1.4939079579475041</v>
       </c>
@@ -4543,26 +4563,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>9.1764925199235681E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>2.290749601275917</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.6300381055188971</v>
+        <v>2.6301035575635563</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>2.2836370415249105E-3</v>
       </c>
@@ -4571,7 +4591,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.67220388965149</v>
+        <v>12.672519254532773</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4603,7 +4623,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.9752307840380569E-2</v>
+        <v>9.9749825431469763E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4622,10 +4642,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4633,22 +4653,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.732131955872077</v>
+        <v>40.730747620714638</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>75.219458970475941</v>
+        <v>75.216902538082735</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.920155242202448</v>
-      </c>
-      <c r="G29" s="285">
+        <v>47.918526612605461</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.408225191718216</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>65.406002207028465</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5679,7 +5699,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7920,7 +7940,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9847,7 +9867,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>627000</v>
       </c>
@@ -10894,7 +10914,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10911,7 +10931,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>809300</v>
       </c>
@@ -11020,11 +11040,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11035,11 +11055,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -11051,11 +11071,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11269,19 +11289,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45382</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11291,18 +11311,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000USD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11669,17 +11689,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8912871723649469E-2</v>
+        <v>7.8910907919300638E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8912871723649469E-2</v>
+        <v>7.8910907919300638E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8912871723649469E-2</v>
+        <v>7.8910907919300638E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11720,17 +11740,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9752307840380569E-2</v>
+        <v>9.9749825431469763E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9752307840380569E-2</v>
+        <v>9.9749825431469763E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9752307840380569E-2</v>
+        <v>9.9749825431469763E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11761,15 +11781,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11790,14 +11810,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.384548672519671</v>
+        <v>96.381272916673993</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.384548672519671</v>
+        <v>96.381272916673993</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11818,14 +11838,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>134.06797828804261</v>
+        <v>134.06312883267702</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>134.06797828804261</v>
+        <v>134.06312883267702</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11868,21 +11888,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12127112.140369579</v>
+        <v>12126699.984489491</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.920155242202448</v>
+        <v>47.918526612605461</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.920155242202448</v>
+        <v>47.918526612605461</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>65.408225191718216</v>
+        <v>65.406002207028465</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11931,27 +11951,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>12127112.140369579</v>
+        <v>12126699.984489491</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.732131955872077</v>
+        <v>40.730747620714638</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.920155242202448</v>
+        <v>47.918526612605461</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>47.920155242202448</v>
+        <v>47.918526612605461</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.920155242202448</v>
+        <v>47.918526612605461</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>65.408225191718216</v>
+        <v>65.406002207028465</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11992,27 +12012,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>16868444.470864415</v>
+        <v>16867834.311976418</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>56.657157790297376</v>
+        <v>56.655108409368736</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>66.655479753291033</v>
+        <v>66.6530687169044</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>66.655479753291033</v>
+        <v>66.6530687169044</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>66.655479753291033</v>
+        <v>66.6530687169044</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>90.980853628906004</v>
+        <v>90.977562704447905</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12053,27 +12073,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14497778.305616999</v>
+        <v>14497267.148232955</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>48.694644873084727</v>
+        <v>48.692928015041687</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>57.287817497746744</v>
+        <v>57.285797664754931</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>57.287817497746744</v>
+        <v>57.285797664754931</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>57.287817497746744</v>
+        <v>57.285797664754931</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>78.194539410312103</v>
+        <v>78.191782455738178</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7724641B-E94A-4D61-A6E9-6A895193C8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2204406-9524-4464-BFD0-4F5159CF316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3571,27 +3571,27 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9749825431469763E-2</v>
+        <v>9.7509200355107573E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0542149237795605E-2</v>
+        <v>8.8508351091559176E-2</v>
       </c>
       <c r="E45" s="150">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10435366352830683</v>
+        <v>0.10200962498688178</v>
       </c>
       <c r="F45" s="150">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.13964975560405768</v>
+        <v>0.1365128804971506</v>
       </c>
       <c r="G45" s="150">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.1334473044121502E-2</v>
+        <v>7.9507501828010793E-2</v>
       </c>
       <c r="H45" s="150">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10281905082936113</v>
+        <v>0.10050948344295703</v>
       </c>
       <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>50.65</v>
+        <v>51.8</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>12817.951586449999</v>
+        <v>13108.9810894</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4408,7 +4408,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>7.7728133201599121</v>
+        <v>7.7707331975301104</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.6301035575635563</v>
+        <v>2.6905396596241311</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>12.672519254532773</v>
+        <v>12.963716026929456</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.9749825431469763E-2</v>
+        <v>9.7509200355107573E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4653,20 +4653,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>40.730747620714638</v>
+        <v>17.679454010300194</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>75.216902538082735</v>
+        <v>46.003206771170497</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>47.918526612605461</v>
+        <v>20.7993576591767</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>65.406002207028465</v>
+        <v>40.00278849667</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9818,7 +9818,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11689,17 +11689,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8910907919300638E-2</v>
+        <v>7.713837590415476E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8910907919300638E-2</v>
+        <v>7.713837590415476E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.8910907919300638E-2</v>
+        <v>7.713837590415476E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11740,17 +11740,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9749825431469763E-2</v>
+        <v>9.7509200355107573E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9749825431469763E-2</v>
+        <v>9.7509200355107573E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9749825431469763E-2</v>
+        <v>9.7509200355107573E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11810,14 +11810,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.381272916673993</v>
+        <v>95.566568973169083</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>96.381272916673993</v>
+        <v>95.566568973169083</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11838,14 +11838,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>134.06312883267702</v>
+        <v>132.66747119659823</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>134.06312883267702</v>
+        <v>132.66747119659823</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11888,21 +11888,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>12126699.984489491</v>
+        <v>12024193.864782959</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.918526612605461</v>
+        <v>47.513474765739048</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.918526612605461</v>
+        <v>47.513474765739048</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>65.406002207028465</v>
+        <v>64.853129991146602</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11929,18 +11929,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-6288854.376761118</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-28.577892718648091</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-24.850341494476602</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11951,27 +11951,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>12126699.984489491</v>
+        <v>5735339.4880218413</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>40.730747620714638</v>
+        <v>17.679454010300194</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>47.918526612605461</v>
+        <v>18.935582047090957</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>47.918526612605461</v>
+        <v>20.7993576591767</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>47.918526612605461</v>
+        <v>22.663133271262446</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>65.406002207028465</v>
+        <v>40.00278849667</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12012,27 +12012,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>16867834.311976418</v>
+        <v>16692232.549086012</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>56.655108409368736</v>
+        <v>56.06530317833392</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>66.6530687169044</v>
+        <v>65.959180209804614</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>66.6530687169044</v>
+        <v>65.959180209804614</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>66.6530687169044</v>
+        <v>65.959180209804614</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>90.977562704447905</v>
+        <v>90.030445244144758</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12073,27 +12073,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>14497267.148232955</v>
+        <v>10742121.940296842</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>48.692928015041687</v>
+        <v>36.872378594317055</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>57.285797664754931</v>
+        <v>42.447381128447788</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>57.285797664754931</v>
+        <v>43.379268934490653</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>57.285797664754931</v>
+        <v>44.311156740533534</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>78.191782455738178</v>
+        <v>65.016616870407375</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A65948C-5729-4F31-A631-B10FAB2B7E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4840FF7A-CB53-4101-B483-8D482F1B6909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3784,27 +3784,27 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.6879442151509565E-2</v>
+        <v>9.6598829911276107E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7936724414447137E-2</v>
+        <v>8.7682014842542927E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10135080102004079</v>
+        <v>0.1010572374456427</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.13563121901211339</v>
+        <v>0.13523836187578656</v>
       </c>
       <c r="G45" s="87">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8994006677384737E-2</v>
+        <v>7.876519977380976E-2</v>
       </c>
       <c r="H45" s="87">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9860348063863708E-2</v>
+        <v>9.9571101600853834E-2</v>
       </c>
       <c r="I45" s="87" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4531,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>52.1</v>
+        <v>52.25</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>13184.901829300001</v>
+        <v>13222.862199249999</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4621,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7652599016825361</v>
+        <v>7.7650597890218096</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4752,7 +4752,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.7080293291053428</v>
+        <v>2.7158959479593823</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.047985778445016</v>
+        <v>13.085889182898121</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.6879442151509565E-2</v>
+        <v>9.6598829911276107E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4871,20 +4871,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>24.830888342767338</v>
+        <v>19.114864229853733</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>46.350038791333375</v>
+        <v>45.720807239081452</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>29.2128098150204</v>
+        <v>22.488075564533805</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>40.304381557681197</v>
+        <v>39.757223686157786</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-24.832838220659951</v>
+        <v>-24.832198272301152</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-24.832838220659951</v>
+        <v>-24.832198272301152</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11410,7 +11410,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-24.832838220659951</v>
+        <v>-24.832198272301152</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11921,17 +11921,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6640181632630075E-2</v>
+        <v>7.64181926060397E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6640181632630075E-2</v>
+        <v>7.64181926060397E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6640181632630075E-2</v>
+        <v>7.64181926060397E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11972,17 +11972,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6879442151509565E-2</v>
+        <v>9.6598829911276107E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6879442151509565E-2</v>
+        <v>9.6598829911276107E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6879442151509565E-2</v>
+        <v>9.6598829911276107E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12035,21 +12035,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>82.196674956265326</v>
+        <v>95.177972896186162</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>82.196674956265326</v>
+        <v>95.177972896186162</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12070,14 +12070,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>109.87383720470287</v>
+        <v>132.02169364434118</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>109.87383720470287</v>
+        <v>132.02169364434118</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12120,21 +12120,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13677285.290812781</v>
+        <v>11975300.673210405</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>54.045648035680351</v>
+        <v>47.320273836834957</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>54.045648035680351</v>
+        <v>47.320273836834957</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>65.137219778341148</v>
+        <v>64.589421958458942</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-6284424.8384316768</v>
+        <v>-6284262.8872553501</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-24.832838220659951</v>
+        <v>-24.832198272301152</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-24.832838220659951</v>
+        <v>-24.832198272301152</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12184,23 +12184,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>24.830888342767338</v>
+        <v>19.114864229853733</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>29.2128098150204</v>
+        <v>22.488075564533805</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>29.2128098150204</v>
+        <v>22.488075564533805</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>29.2128098150204</v>
+        <v>22.488075564533805</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>40.304381557681197</v>
+        <v>39.757223686157786</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12239,23 +12239,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>61.407256759429586</v>
+        <v>55.792397439447853</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>72.243831481681866</v>
+        <v>65.638114634644538</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>72.243831481681866</v>
+        <v>65.638114634644538</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>72.243831481681866</v>
+        <v>65.638114634644538</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>87.070143478436208</v>
+        <v>89.592209405065404</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12294,23 +12294,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>43.119072551098462</v>
+        <v>37.453630834650795</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>50.728320648351129</v>
+        <v>44.063095099589169</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>50.728320648351129</v>
+        <v>44.063095099589169</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>50.728320648351129</v>
+        <v>44.063095099589169</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>63.687262518058702</v>
+        <v>64.674716545611602</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4840FF7A-CB53-4101-B483-8D482F1B6909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFAF7DC4-D0F4-40B0-926C-EFBF82A15E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3784,27 +3785,27 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.6598829911276107E-2</v>
+        <v>9.6412485323677938E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7682014842542927E-2</v>
+        <v>8.7512871293799963E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.1010572374456427</v>
+        <v>0.10086229233861692</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.13523836187578656</v>
+        <v>0.13497747945314911</v>
       </c>
       <c r="G45" s="87">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.876519977380976E-2</v>
+        <v>7.8613257263922001E-2</v>
       </c>
       <c r="H45" s="87">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9571101600853834E-2</v>
+        <v>9.9379023333637254E-2</v>
       </c>
       <c r="I45" s="87" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4436,7 +4437,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4459,6 +4460,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4477,8 +4481,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4514,24 +4518,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0303.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>52.25</v>
+        <v>52.35</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4541,7 +4548,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>VTECH</v>
       </c>
@@ -4570,11 +4577,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>13222.862199249999</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>13248.169112550002</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4597,11 +4604,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4621,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7650597890218096</v>
+        <v>7.7649132410685224</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4669,10 +4676,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4719,7 +4726,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4793,7 +4800,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.7158959479593823</v>
+        <v>2.7211451904063844</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4809,7 +4816,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.085889182898121</v>
+        <v>13.111181390799992</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4841,7 +4848,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.6598829911276107E-2</v>
+        <v>9.6412485323677938E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4860,10 +4867,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4871,22 +4878,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>19.114864229853733</v>
+        <v>22.997239601816126</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>45.720807239081452</v>
+        <v>54.946285372547997</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>22.488075564533805</v>
-      </c>
-      <c r="G29" s="312">
+        <v>27.055576002136618</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>39.757223686157786</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>47.77937858482435</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5868,15 +5875,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5904,7 +5912,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11335,7 +11343,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-24.832198272301152</v>
+        <v>-24.831729620683355</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11389,7 +11397,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-24.832198272301152</v>
+        <v>-24.831729620683355</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11410,7 +11418,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-24.832198272301152</v>
+        <v>-24.831729620683355</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11921,17 +11929,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.64181926060397E-2</v>
+        <v>7.6270777605265364E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.64181926060397E-2</v>
+        <v>7.6270777605265364E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.64181926060397E-2</v>
+        <v>7.6270777605265364E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11972,17 +11980,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6598829911276107E-2</v>
+        <v>9.6412485323677938E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6598829911276107E-2</v>
+        <v>9.6412485323677938E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6598829911276107E-2</v>
+        <v>9.6412485323677938E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12031,7 +12039,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -12042,14 +12050,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.177972896186162</v>
+        <v>104.36390510446809</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>95.177972896186162</v>
+        <v>104.36390510446809</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12070,14 +12078,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>132.02169364434118</v>
+        <v>144.73965859319338</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>132.02169364434118</v>
+        <v>144.73965859319338</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12120,21 +12128,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>11975300.673210405</v>
+        <v>13131075.447673075</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>47.320273836834957</v>
+        <v>51.887305622819973</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>47.320273836834957</v>
+        <v>51.887305622819973</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>64.589421958458942</v>
+        <v>72.611108205507705</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12162,17 +12170,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-6284262.8872553501</v>
+        <v>-6284144.2859967556</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-24.832198272301152</v>
+        <v>-24.831729620683355</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-24.832198272301152</v>
+        <v>-24.831729620683355</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12184,23 +12192,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>19.114864229853733</v>
+        <v>22.997239601816126</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>22.488075564533805</v>
+        <v>27.055576002136618</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>22.488075564533805</v>
+        <v>27.055576002136618</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>22.488075564533805</v>
+        <v>27.055576002136618</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>39.757223686157786</v>
+        <v>47.77937858482435</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12239,23 +12247,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>55.792397439447853</v>
+        <v>61.167012288420004</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>65.638114634644538</v>
+        <v>71.961190927552948</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>65.638114634644538</v>
+        <v>71.961190927552948</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>65.638114634644538</v>
+        <v>71.961190927552948</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>89.592209405065404</v>
+        <v>100.70250822081073</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12294,23 +12302,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>37.453630834650795</v>
+        <v>42.082125945118065</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>44.063095099589169</v>
+        <v>49.508383464844783</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>44.063095099589169</v>
+        <v>49.508383464844783</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>44.063095099589169</v>
+        <v>49.508383464844783</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>64.674716545611602</v>
+        <v>74.240943402817535</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFAF7DC4-D0F4-40B0-926C-EFBF82A15E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7445FE3-7A6A-400A-9053-8AA619C5DD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3785,27 +3785,27 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.6412485323677938E-2</v>
+        <v>9.6322389352715962E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7512871293799963E-2</v>
+        <v>8.7431091874003705E-2</v>
       </c>
       <c r="E45" s="87">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10086229233861692</v>
+        <v>0.10076803809207208</v>
       </c>
       <c r="F45" s="87">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.13497747945314911</v>
+        <v>0.13485134509380234</v>
       </c>
       <c r="G45" s="87">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8613257263922001E-2</v>
+        <v>7.8539794395291476E-2</v>
       </c>
       <c r="H45" s="87">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9379023333637254E-2</v>
+        <v>9.9286155178953381E-2</v>
       </c>
       <c r="I45" s="87" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4518,27 +4518,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0303.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>52.35</v>
+        <v>52.4</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4548,40 +4548,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>VTECH</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>253069133</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>13248.169112550002</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>13260.8225692</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4604,11 +4604,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4628,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7649132410685224</v>
+        <v>7.7650664647420244</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4759,7 +4759,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.7211451904063844</v>
+        <v>2.723690436840839</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.111181390799992</v>
+        <v>13.123445046485868</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.6412485323677938E-2</v>
+        <v>9.6322389352715962E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4867,10 +4867,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4878,22 +4878,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>22.997239601816126</v>
+        <v>26.006600750480246</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>54.946285372547997</v>
+        <v>54.846074261935243</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>27.055576002136618</v>
-      </c>
-      <c r="G29" s="313">
+        <v>30.596000882917938</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>47.77937858482435</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>47.692238488639347</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5876,15 +5876,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11257,7 +11257,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11268,11 +11268,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11284,11 +11284,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-24.831729620683355</v>
+        <v>-24.83221962085641</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-24.831729620683355</v>
+        <v>-24.83221962085641</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-24.831729620683355</v>
+        <v>-24.83221962085641</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11929,17 +11929,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6270777605265364E-2</v>
+        <v>7.6199503747514455E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6270777605265364E-2</v>
+        <v>7.6199503747514455E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6270777605265364E-2</v>
+        <v>7.6199503747514455E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11980,17 +11980,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6412485323677938E-2</v>
+        <v>9.6322389352715962E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6412485323677938E-2</v>
+        <v>9.6322389352715962E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6412485323677938E-2</v>
+        <v>9.6322389352715962E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -12043,21 +12043,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>104.36390510446809</v>
+        <v>96.944304087479452</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>104.36390510446809</v>
+        <v>96.944304087479452</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12078,14 +12078,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>144.73965859319338</v>
+        <v>131.97126680205673</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>144.73965859319338</v>
+        <v>131.97126680205673</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12128,21 +12128,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>13131075.447673075</v>
+        <v>14027171.706622997</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>51.887305622819973</v>
+        <v>55.428220503774348</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>51.887305622819973</v>
+        <v>55.428220503774348</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>72.611108205507705</v>
+        <v>72.524458109495754</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12170,17 +12170,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-6284144.2859967556</v>
+        <v>-6284268.28991572</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-24.831729620683355</v>
+        <v>-24.83221962085641</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-24.831729620683355</v>
+        <v>-24.83221962085641</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12192,23 +12192,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.997239601816126</v>
+        <v>26.006600750480246</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>27.055576002136618</v>
+        <v>30.596000882917938</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>27.055576002136618</v>
+        <v>30.596000882917938</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>27.055576002136618</v>
+        <v>30.596000882917938</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>47.77937858482435</v>
+        <v>47.692238488639347</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12247,23 +12247,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>61.167012288420004</v>
+        <v>64.136750101235066</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>71.961190927552948</v>
+        <v>75.455000119100077</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>71.961190927552948</v>
+        <v>75.455000119100077</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>71.961190927552948</v>
+        <v>75.455000119100077</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>100.70250822081073</v>
+        <v>98.728282191867137</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12302,23 +12302,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>42.082125945118065</v>
+        <v>45.071675425857656</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>49.508383464844783</v>
+        <v>53.025500501009006</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>49.508383464844783</v>
+        <v>53.025500501009006</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>49.508383464844783</v>
+        <v>53.025500501009006</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>74.240943402817535</v>
+        <v>73.210260340253242</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8452FE2A-882D-4035-B16C-5A57E98F0110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B99D57-1FCF-4972-97E1-6E54AE011A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3808,27 +3808,27 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.6319950415584582E-2</v>
+        <v>9.7221941453813174E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7428878069530619E-2</v>
+        <v>8.8247608396538099E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10076548658861158</v>
+        <v>0.10170910798245071</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.13484793058181843</v>
+        <v>0.13611071803533845</v>
       </c>
       <c r="G45" s="82">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.8537805723476656E-2</v>
+        <v>7.9273275339263038E-2</v>
       </c>
       <c r="H45" s="82">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.9283641197602565E-2</v>
+        <v>0.10021338580623819</v>
       </c>
       <c r="I45" s="82" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4546,27 +4546,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0303.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>52.4</v>
+        <v>51.95</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4576,7 +4576,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>VTECH</v>
       </c>
@@ -4605,11 +4605,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>13260.8225692</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>13146.941459350001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4632,11 +4632,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7648698488871259</v>
+        <v>7.7702767054239912</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.7237594039625219</v>
+        <v>2.6984893205232581</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.123777347917475</v>
+        <v>13.002019549435818</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.6319950415584582E-2</v>
+        <v>9.7221941453813174E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4895,10 +4895,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4906,22 +4906,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.219751923759212</v>
+        <v>26.363738102580172</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>55.301141866018334</v>
+        <v>55.562426685534241</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>30.846766969128485</v>
-      </c>
-      <c r="G29" s="313">
+        <v>31.01616247362373</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>48.087949448711598</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>48.315153639594996</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5904,15 +5904,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-24.831590855074179</v>
+        <v>-24.848881659936126</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-24.831590855074179</v>
+        <v>-24.848881659936126</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-24.831590855074179</v>
+        <v>-24.848881659936126</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12059,17 +12059,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6197574333176518E-2</v>
+        <v>7.6911128782558388E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6197574333176518E-2</v>
+        <v>7.6911128782558388E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6197574333176518E-2</v>
+        <v>7.6911128782558388E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12110,17 +12110,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6319950415584582E-2</v>
+        <v>9.7221941453813174E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6319950415584582E-2</v>
+        <v>9.7221941453813174E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6319950415584582E-2</v>
+        <v>9.7221941453813174E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12180,14 +12180,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>97.381795824266831</v>
+        <v>97.708311346121988</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>97.381795824266831</v>
+        <v>97.708311346121988</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12208,14 +12208,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>132.56659975538895</v>
+        <v>133.09602546284631</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>132.56659975538895</v>
+        <v>133.09602546284631</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12258,21 +12258,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14090473.741434734</v>
+        <v>14137718.283886729</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>55.678357824202664</v>
+        <v>55.865044133559856</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>55.678357824202664</v>
+        <v>55.865044133559856</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>72.91954030378578</v>
+        <v>73.164035299531122</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12300,17 +12300,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-6284109.1687043514</v>
+        <v>-6288484.9376996364</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-24.831590855074179</v>
+        <v>-24.848881659936126</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-24.831590855074179</v>
+        <v>-24.848881659936126</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12322,23 +12322,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.219751923759212</v>
+        <v>26.363738102580172</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>30.846766969128485</v>
+        <v>31.01616247362373</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>30.846766969128485</v>
+        <v>31.01616247362373</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>30.846766969128485</v>
+        <v>31.01616247362373</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>48.087949448711598</v>
+        <v>48.315153639594996</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12377,23 +12377,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>64.426076117269815</v>
+        <v>64.683371853828092</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>75.795383667376257</v>
+        <v>76.098084533915397</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>75.795383667376257</v>
+        <v>76.098084533915397</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>75.795383667376257</v>
+        <v>76.098084533915397</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>99.265940127487895</v>
+        <v>99.662374377709199</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12432,23 +12432,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>45.322914020514517</v>
+        <v>45.523554978204132</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>53.321075318252369</v>
+        <v>53.55712350376956</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>53.321075318252369</v>
+        <v>53.55712350376956</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>53.321075318252369</v>
+        <v>53.55712350376956</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>73.676944788099746</v>
+        <v>73.988764008652097</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0303.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0303.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B99D57-1FCF-4972-97E1-6E54AE011A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20FAD66B-D73F-467E-ABD4-58604CB98733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3808,27 +3808,27 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.7221941453813174E-2</v>
+        <v>0.10108770642961774</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8247608396538099E-2</v>
+        <v>9.1756533528422266E-2</v>
       </c>
       <c r="E45" s="82">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10170910798245071</v>
+        <v>0.10575329288021551</v>
       </c>
       <c r="F45" s="82">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.13611071803533845</v>
+        <v>0.14152278900146487</v>
       </c>
       <c r="G45" s="82">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>7.9273275339263038E-2</v>
+        <v>8.2425360627226787E-2</v>
       </c>
       <c r="H45" s="82">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.10021338580623819</v>
+        <v>0.10419809739668293</v>
       </c>
       <c r="I45" s="82" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4546,27 +4546,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0303.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>51.95</v>
+        <v>50.05</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4576,40 +4576,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>VTECH</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>253069133</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>13146.941459350001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>12666.11010665</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4632,11 +4632,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>USD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>7.7702767054239912</v>
+        <v>7.7837533950805664</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.6984893205232581</v>
+        <v>2.5952945219537153</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>13.002019549435818</v>
+        <v>12.504800317105813</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>9.7221941453813174E-2</v>
+        <v>0.10108770642961774</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4895,10 +4895,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4906,22 +4906,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>26.363738102580172</v>
+        <v>26.952090378464227</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>55.562426685534241</v>
+        <v>56.620268690916298</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>31.01616247362373</v>
-      </c>
-      <c r="G29" s="314">
+        <v>31.708341621722621</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>48.315153639594996</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>49.235016252970695</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5904,15 +5904,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11387,7 +11387,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11398,11 +11398,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11414,11 +11414,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-24.848881659936126</v>
+        <v>-24.891979310012108</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11527,7 +11527,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-24.848881659936126</v>
+        <v>-24.891979310012108</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-24.848881659936126</v>
+        <v>-24.891979310012108</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12059,17 +12059,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6911128782558388E-2</v>
+        <v>7.9969289764032475E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6911128782558388E-2</v>
+        <v>7.9969289764032475E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.6911128782558388E-2</v>
+        <v>7.9969289764032475E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12110,17 +12110,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.7221941453813174E-2</v>
+        <v>0.10108770642961774</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.7221941453813174E-2</v>
+        <v>0.10108770642961774</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.7221941453813174E-2</v>
+        <v>0.10108770642961774</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12180,14 +12180,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>97.708311346121988</v>
+        <v>98.994315061609825</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>97.708311346121988</v>
+        <v>98.994315061609825</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12208,14 +12208,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>133.09602546284631</v>
+        <v>135.21578396586864</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>133.09602546284631</v>
+        <v>135.21578396586864</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12258,21 +12258,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>14137718.283886729</v>
+        <v>14323794.145715861</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>55.865044133559856</v>
+        <v>56.600320931734728</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>55.865044133559856</v>
+        <v>56.600320931734728</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>73.164035299531122</v>
+        <v>74.126995562982799</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12300,17 +12300,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-6288484.9376996364</v>
+        <v>-6299391.6226387024</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-24.848881659936126</v>
+        <v>-24.891979310012108</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-24.848881659936126</v>
+        <v>-24.891979310012108</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12322,23 +12322,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>26.363738102580172</v>
+        <v>26.952090378464227</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>31.01616247362373</v>
+        <v>31.708341621722621</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>31.01616247362373</v>
+        <v>31.708341621722621</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>31.01616247362373</v>
+        <v>31.708341621722621</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>48.315153639594996</v>
+        <v>49.235016252970695</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12377,23 +12377,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>64.683371853828092</v>
+        <v>65.713553837208053</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>76.098084533915397</v>
+        <v>77.310063337891833</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>76.098084533915397</v>
+        <v>77.310063337891833</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>76.098084533915397</v>
+        <v>77.310063337891833</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>99.662374377709199</v>
+        <v>101.2496506677703</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12432,23 +12432,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>45.523554978204132</v>
+        <v>46.332822107836137</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>53.55712350376956</v>
+        <v>54.509202479807229</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>53.55712350376956</v>
+        <v>54.509202479807229</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>53.55712350376956</v>
+        <v>54.509202479807229</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>73.988764008652097</v>
+        <v>75.242333460370503</v>
       </c>
       <c r="K106" s="75"/>
     </row>
